--- a/miniprojet_mines/Introduction_input-output.xlsx
+++ b/miniprojet_mines/Introduction_input-output.xlsx
@@ -8,43 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\io-footprinting\miniprojet_mines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94521A5-628D-4AAE-ACA1-610346089A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F983DD9-7642-4E4F-950A-7A39266BF1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{2A51A9C5-F957-4F76-9829-2D9011963CC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2A51A9C5-F957-4F76-9829-2D9011963CC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modèle IO simplifié" sheetId="1" r:id="rId1"/>
-    <sheet name="Modèle MRIO simplifié" sheetId="2" r:id="rId2"/>
-    <sheet name="Calculs IO" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId1"/>
+    <sheet name="Modèle IO simplifié" sheetId="1" r:id="rId2"/>
+    <sheet name="Modèle MRIO simplifié" sheetId="2" r:id="rId3"/>
+    <sheet name="Calculs IO" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'Calculs IO'!$C$8:$H$13</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Calculs IO'!$Q$14</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculs IO'!$C$9:$H$14</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Calculs IO'!$Q$15</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="147">
   <si>
     <t>Adapté de https://unstats.un.org/unsd/nationalaccount/docs/SUT_IOT_HB_Final_Cover.pdf</t>
   </si>
@@ -494,6 +495,30 @@
   </si>
   <si>
     <t>Attention : les émissions dues aux importations sont estimées en utilisant les coefficients d'émissions domestiques pour évaluer l'impact de produits étrangers</t>
+  </si>
+  <si>
+    <t>Ce classeur Excel contient les pages suivantes</t>
+  </si>
+  <si>
+    <t>Modèle IO simplifié</t>
+  </si>
+  <si>
+    <t>Modèle MRIO simplifié</t>
+  </si>
+  <si>
+    <t>Simple représentation d'un tableau entrée-sortie multirégional</t>
+  </si>
+  <si>
+    <t>Calculs IO</t>
+  </si>
+  <si>
+    <t>Tiré de https://unstats.un.org/unsd/nationalaccount/docs/SUT_IOT_HB_Final_Cover.pdf</t>
+  </si>
+  <si>
+    <t>Construction d'un tableau entrée-sortie symétrique</t>
+  </si>
+  <si>
+    <t>Calcul d'une empreinte carbone à l'échelle d'un pays</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculs IO'!$R$43</c:f>
+              <c:f>'Calculs IO'!$R$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1456,7 +1481,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1479,7 +1504,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
+              <c:f>'Calculs IO'!$S$44:$W$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1512,7 +1537,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculs IO'!$R$44</c:f>
+              <c:f>'Calculs IO'!$R$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1533,7 +1558,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1556,7 +1581,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculs IO'!$S$44:$W$44</c:f>
+              <c:f>'Calculs IO'!$S$45:$W$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1589,7 +1614,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculs IO'!$R$45</c:f>
+              <c:f>'Calculs IO'!$R$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1610,7 +1635,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1633,7 +1658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculs IO'!$S$45:$W$45</c:f>
+              <c:f>'Calculs IO'!$S$46:$W$46</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1666,7 +1691,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculs IO'!$R$46</c:f>
+              <c:f>'Calculs IO'!$R$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,7 +1712,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1710,7 +1735,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculs IO'!$S$46:$W$46</c:f>
+              <c:f>'Calculs IO'!$S$47:$W$47</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1743,7 +1768,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculs IO'!$R$47</c:f>
+              <c:f>'Calculs IO'!$R$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1764,7 +1789,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1787,7 +1812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculs IO'!$S$47:$W$47</c:f>
+              <c:f>'Calculs IO'!$S$48:$W$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1820,7 +1845,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculs IO'!$R$48</c:f>
+              <c:f>'Calculs IO'!$R$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1841,7 +1866,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1864,7 +1889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Calculs IO'!$S$48:$W$48</c:f>
+              <c:f>'Calculs IO'!$S$49:$W$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1897,7 +1922,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculs IO'!$R$49</c:f>
+              <c:f>'Calculs IO'!$R$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1920,74 +1945,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Ménages</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Gouvernement</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Formation de capital (investissements)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Changement d'inventaires</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Exportations</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Calculs IO'!$S$49:$W$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0">
-                  <c:v>226.14599999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CCA0-4698-8FB1-A4D9B8EDE18C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Calculs IO'!$R$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Importations (estimation)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Calculs IO'!$S$42:$W$42</c:f>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2011,6 +1969,73 @@
           <c:val>
             <c:numRef>
               <c:f>'Calculs IO'!$S$50:$W$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>226.14599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CCA0-4698-8FB1-A4D9B8EDE18C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculs IO'!$R$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Importations (estimation)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calculs IO'!$S$43:$W$43</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ménages</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gouvernement</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Formation de capital (investissements)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Changement d'inventaires</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Exportations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calculs IO'!$S$51:$W$51</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3459,13 +3484,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>35101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3503,13 +3528,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3834,14 +3859,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8C8CD-BB26-497E-ABAE-AFC1F8D53762}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3B0C1-F3C5-4C3C-B279-249DC9703352}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3851,9 +3923,8 @@
     <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="1" collapsed="1"/>
-    <col min="13" max="21" width="9.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="21" width="9.140625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="22" max="23" width="9.140625" style="1"/>
     <col min="24" max="24" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="9.140625" style="1"/>
@@ -5984,7 +6055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BEDF22-5ED6-4A0B-85A7-068F43996DFB}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -6021,13 +6092,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E140C2E-2C5F-461A-AA8D-DF2EB62DCED2}">
-  <dimension ref="A1:AS98"/>
+  <dimension ref="A1:AS99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF40" sqref="AF40"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6057,338 +6126,263 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="139" t="s">
+    <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A3" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="22" t="s">
+    <row r="6" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="105" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="105" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="135" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="105"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="135" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="V6" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="X6" s="105" t="s">
-        <v>61</v>
-      </c>
+      <c r="R6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB6" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC6" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="105"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="105" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="B7" s="135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>15</v>
+      </c>
       <c r="N7" s="105"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
+      <c r="R7" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="S7" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB7" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC7" s="105" t="s">
+        <v>15</v>
+      </c>
       <c r="AD7" s="105"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="155">
-        <v>2.9936087176502038</v>
-      </c>
-      <c r="D8" s="156">
-        <v>21.398341992560255</v>
-      </c>
-      <c r="E8" s="156">
-        <v>0</v>
-      </c>
-      <c r="F8" s="156">
-        <v>0</v>
-      </c>
-      <c r="G8" s="156">
-        <v>0</v>
-      </c>
-      <c r="H8" s="156">
-        <v>1.0034424974772413</v>
-      </c>
-      <c r="I8" s="74">
-        <v>9</v>
-      </c>
-      <c r="J8" s="74">
-        <v>0</v>
-      </c>
-      <c r="K8" s="74">
-        <v>0</v>
-      </c>
-      <c r="L8" s="74">
-        <v>3</v>
-      </c>
-      <c r="M8" s="75">
-        <v>5</v>
-      </c>
-      <c r="N8" s="161">
-        <f>SUM(C8:M8)</f>
-        <v>42.395393207687704</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="73">
-        <v>9260</v>
-      </c>
-      <c r="T8" s="74">
-        <v>550893</v>
-      </c>
-      <c r="U8" s="74">
-        <v>9162</v>
-      </c>
-      <c r="V8" s="74">
-        <v>80990</v>
-      </c>
-      <c r="W8" s="74">
-        <v>12077</v>
-      </c>
-      <c r="X8" s="74">
-        <v>24173</v>
-      </c>
-      <c r="Y8" s="74">
-        <v>222268</v>
-      </c>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="147">
-        <f>SUM(S8:AC8)</f>
-        <v>908823</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="157">
-        <v>6.7935184726534361</v>
-      </c>
-      <c r="D9" s="158">
-        <v>393.75155836781312</v>
-      </c>
-      <c r="E9" s="158">
-        <v>48.401222566522279</v>
-      </c>
-      <c r="F9" s="158">
-        <v>56.179738681746514</v>
-      </c>
-      <c r="G9" s="158">
-        <v>10.999949466688948</v>
-      </c>
-      <c r="H9" s="158">
-        <v>29.918452085493897</v>
-      </c>
-      <c r="I9" s="31">
-        <v>250</v>
-      </c>
-      <c r="J9" s="31">
-        <v>7</v>
-      </c>
-      <c r="K9" s="31">
-        <v>95</v>
-      </c>
-      <c r="L9" s="31">
-        <v>-58</v>
-      </c>
-      <c r="M9" s="108">
-        <v>611</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="155">
+        <v>2.9936087176502038</v>
+      </c>
+      <c r="D9" s="156">
+        <v>21.398341992560255</v>
+      </c>
+      <c r="E9" s="156">
+        <v>0</v>
+      </c>
+      <c r="F9" s="156">
+        <v>0</v>
+      </c>
+      <c r="G9" s="156">
+        <v>0</v>
+      </c>
+      <c r="H9" s="156">
+        <v>1.0034424974772413</v>
+      </c>
+      <c r="I9" s="74">
+        <v>9</v>
+      </c>
+      <c r="J9" s="74">
+        <v>0</v>
+      </c>
+      <c r="K9" s="74">
+        <v>0</v>
+      </c>
+      <c r="L9" s="74">
+        <v>3</v>
+      </c>
+      <c r="M9" s="75">
+        <v>5</v>
       </c>
       <c r="N9" s="161">
         <f>SUM(C9:M9)</f>
-        <v>1451.0444396409182</v>
+        <v>42.395393207687704</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="110">
-        <v>1247</v>
-      </c>
-      <c r="T9" s="31">
-        <v>925</v>
-      </c>
-      <c r="U9" s="31">
-        <v>1</v>
-      </c>
-      <c r="V9" s="31">
-        <v>49</v>
-      </c>
-      <c r="W9" s="31">
-        <v>3</v>
-      </c>
-      <c r="X9" s="31">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="31">
-        <v>79</v>
-      </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="S9" s="73">
+        <v>9260</v>
+      </c>
+      <c r="T9" s="74">
+        <v>550893</v>
+      </c>
+      <c r="U9" s="74">
+        <v>9162</v>
+      </c>
+      <c r="V9" s="74">
+        <v>80990</v>
+      </c>
+      <c r="W9" s="74">
+        <v>12077</v>
+      </c>
+      <c r="X9" s="74">
+        <v>24173</v>
+      </c>
+      <c r="Y9" s="74">
+        <v>222268</v>
+      </c>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
       <c r="AD9" s="147">
         <f>SUM(S9:AC9)</f>
-        <v>2314</v>
+        <v>908823</v>
       </c>
       <c r="AE9" s="7" t="s">
         <v>103</v>
@@ -6397,551 +6391,516 @@
     <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="157">
-        <v>0.99523863948400215</v>
+        <v>6.7935184726534361</v>
       </c>
       <c r="D10" s="158">
-        <v>10.93660269618343</v>
+        <v>393.75155836781312</v>
       </c>
       <c r="E10" s="158">
-        <v>17.88730511999665</v>
+        <v>48.401222566522279</v>
       </c>
       <c r="F10" s="158">
-        <v>7.9701642756213431</v>
+        <v>56.179738681746514</v>
       </c>
       <c r="G10" s="158">
-        <v>27.590197388047663</v>
+        <v>10.999949466688948</v>
       </c>
       <c r="H10" s="158">
-        <v>9.9386505325788583</v>
+        <v>29.918452085493897</v>
       </c>
       <c r="I10" s="31">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="J10" s="31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="31">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="L10" s="31">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="M10" s="108">
-        <v>1</v>
+        <v>611</v>
       </c>
       <c r="N10" s="161">
-        <f t="shared" ref="N10:N13" si="0">SUM(C10:M10)</f>
-        <v>234.31815865191194</v>
+        <f>SUM(C10:M10)</f>
+        <v>1451.0444396409182</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="S10" s="76">
-        <v>137</v>
-      </c>
-      <c r="T10" s="77">
-        <v>62</v>
-      </c>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77">
-        <v>2</v>
-      </c>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="78"/>
+        <v>101</v>
+      </c>
+      <c r="S10" s="110">
+        <v>1247</v>
+      </c>
+      <c r="T10" s="31">
+        <v>925</v>
+      </c>
+      <c r="U10" s="31">
+        <v>1</v>
+      </c>
+      <c r="V10" s="31">
+        <v>49</v>
+      </c>
+      <c r="W10" s="31">
+        <v>3</v>
+      </c>
+      <c r="X10" s="31">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="31">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="108"/>
       <c r="AD10" s="147">
-        <f t="shared" ref="AD10" si="1">SUM(S10:AC10)</f>
-        <v>205</v>
+        <f>SUM(S10:AC10)</f>
+        <v>2314</v>
       </c>
       <c r="AE10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="AG10" s="22" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="157">
-        <v>3.9316938582373879</v>
+        <v>0.99523863948400215</v>
       </c>
       <c r="D11" s="158">
-        <v>138.13931108194092</v>
+        <v>10.93660269618343</v>
       </c>
       <c r="E11" s="158">
-        <v>17.03856637336472</v>
+        <v>17.88730511999665</v>
       </c>
       <c r="F11" s="158">
-        <v>181.48987351615207</v>
+        <v>7.9701642756213431</v>
       </c>
       <c r="G11" s="158">
-        <v>37.937614828826412</v>
+        <v>27.590197388047663</v>
       </c>
       <c r="H11" s="158">
-        <v>39.786593716625333</v>
+        <v>9.9386505325788583</v>
       </c>
       <c r="I11" s="31">
-        <v>317</v>
+        <v>5</v>
       </c>
       <c r="J11" s="31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K11" s="31">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="L11" s="31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" s="108">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="N11" s="161">
-        <f t="shared" si="0"/>
-        <v>906.32365337514693</v>
+        <f t="shared" ref="N11:N14" si="0">SUM(C11:M11)</f>
+        <v>234.31815865191194</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AH11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO11" s="6"/>
-      <c r="AP11" s="6"/>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
+      <c r="R11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" s="76">
+        <v>137</v>
+      </c>
+      <c r="T11" s="77">
+        <v>62</v>
+      </c>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77">
+        <v>2</v>
+      </c>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="147">
+        <f t="shared" ref="AD11" si="1">SUM(S11:AC11)</f>
+        <v>205</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG11" s="22" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="157">
-        <v>5.8480001813764479</v>
+        <v>3.9316938582373879</v>
       </c>
       <c r="D12" s="158">
-        <v>130.89118370751478</v>
+        <v>138.13931108194092</v>
       </c>
       <c r="E12" s="158">
-        <v>30.153526507991604</v>
+        <v>17.03856637336472</v>
       </c>
       <c r="F12" s="158">
-        <v>124.80029547343118</v>
+        <v>181.48987351615207</v>
       </c>
       <c r="G12" s="158">
-        <v>260.62491057202243</v>
+        <v>37.937614828826412</v>
       </c>
       <c r="H12" s="158">
-        <v>50.752047191136235</v>
+        <v>39.786593716625333</v>
       </c>
       <c r="I12" s="31">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J12" s="31">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K12" s="31">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L12" s="31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12" s="108">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="N12" s="161">
         <f t="shared" si="0"/>
-        <v>1010.0699636334728</v>
+        <v>906.32365337514693</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="6" t="s">
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AH12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="7"/>
-      <c r="AH12" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI12" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ12" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK12" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL12" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM12" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="AO12" s="6"/>
-      <c r="AP12" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ12" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR12" s="105" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="157">
-        <v>0</v>
+        <v>5.8480001813764479</v>
       </c>
       <c r="D13" s="158">
-        <v>18.094108398473551</v>
+        <v>130.89118370751478</v>
       </c>
       <c r="E13" s="158">
-        <v>3.0042047339960867</v>
+        <v>30.153526507991604</v>
       </c>
       <c r="F13" s="158">
-        <v>12.050248105274347</v>
+        <v>124.80029547343118</v>
       </c>
       <c r="G13" s="158">
-        <v>17.083958153170453</v>
+        <v>260.62491057202243</v>
       </c>
       <c r="H13" s="158">
-        <v>47.442632050937988</v>
+        <v>50.752047191136235</v>
       </c>
       <c r="I13" s="31">
-        <v>147</v>
+        <v>313</v>
       </c>
       <c r="J13" s="31">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="K13" s="31">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L13" s="31">
         <v>0</v>
       </c>
       <c r="M13" s="108">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="N13" s="161">
         <f t="shared" si="0"/>
-        <v>720.67515144185245</v>
+        <v>1010.0699636334728</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="135" t="s">
+      <c r="R13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="7"/>
+      <c r="AH13" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ13" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL13" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM13" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ13" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR13" s="105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="157">
+        <v>0</v>
+      </c>
+      <c r="D14" s="158">
+        <v>18.094108398473551</v>
+      </c>
+      <c r="E14" s="158">
+        <v>3.0042047339960867</v>
+      </c>
+      <c r="F14" s="158">
+        <v>12.050248105274347</v>
+      </c>
+      <c r="G14" s="158">
+        <v>17.083958153170453</v>
+      </c>
+      <c r="H14" s="158">
+        <v>47.442632050937988</v>
+      </c>
+      <c r="I14" s="31">
+        <v>147</v>
+      </c>
+      <c r="J14" s="31">
+        <v>472</v>
+      </c>
+      <c r="K14" s="31">
+        <v>2</v>
+      </c>
+      <c r="L14" s="31">
+        <v>0</v>
+      </c>
+      <c r="M14" s="108">
+        <v>2</v>
+      </c>
+      <c r="N14" s="161">
+        <f t="shared" si="0"/>
+        <v>720.67515144185245</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="S13" s="105" t="s">
+      <c r="S14" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="T13" s="105" t="s">
+      <c r="T14" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="105" t="s">
+      <c r="U14" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="105" t="s">
+      <c r="V14" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="W13" s="105" t="s">
+      <c r="W14" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="X13" s="105" t="s">
+      <c r="X14" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="Y13" s="6" t="s">
+      <c r="Y14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="105" t="s">
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="AB13" s="105" t="s">
+      <c r="AB14" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="AC13" s="105" t="s">
+      <c r="AC14" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="AD13" s="7"/>
-      <c r="AH13" s="105"/>
-      <c r="AI13" s="105"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="7" t="s">
+      <c r="AD14" s="7"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="105"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AO13" s="7" t="s">
+      <c r="AO14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AP13" s="105"/>
-      <c r="AQ13" s="105"/>
-      <c r="AR13" s="105"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="106" t="s">
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="105"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="159">
-        <f>SUM(C8:C13)</f>
+      <c r="C15" s="159">
+        <f>SUM(C9:C14)</f>
         <v>20.562059869401477</v>
       </c>
-      <c r="D14" s="160">
-        <f t="shared" ref="D14:M14" si="2">SUM(D8:D13)</f>
+      <c r="D15" s="160">
+        <f t="shared" ref="D15:M15" si="2">SUM(D9:D14)</f>
         <v>713.21110624448602</v>
       </c>
-      <c r="E14" s="160">
+      <c r="E15" s="160">
         <f t="shared" si="2"/>
         <v>116.48482530187134</v>
       </c>
-      <c r="F14" s="160">
+      <c r="F15" s="160">
         <f t="shared" si="2"/>
         <v>382.49032005222546</v>
       </c>
-      <c r="G14" s="160">
+      <c r="G15" s="160">
         <f t="shared" si="2"/>
         <v>354.2366304087559</v>
       </c>
-      <c r="H14" s="160">
+      <c r="H15" s="160">
         <f t="shared" si="2"/>
         <v>178.84181807424955</v>
       </c>
-      <c r="I14" s="107">
+      <c r="I15" s="107">
         <f t="shared" si="2"/>
         <v>1041</v>
       </c>
-      <c r="J14" s="107">
+      <c r="J15" s="107">
         <f t="shared" si="2"/>
         <v>497</v>
       </c>
-      <c r="K14" s="107">
+      <c r="K15" s="107">
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
-      <c r="L14" s="107">
+      <c r="L15" s="107">
         <f t="shared" si="2"/>
         <v>-49</v>
       </c>
-      <c r="M14" s="109">
+      <c r="M15" s="109">
         <f t="shared" si="2"/>
         <v>796</v>
       </c>
-      <c r="N14" s="160">
-        <f>SUM(C14:M14)</f>
+      <c r="N15" s="160">
+        <f>SUM(C15:M15)</f>
         <v>4364.8267599509891</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="105"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="105"/>
-      <c r="W14" s="105"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA14" s="105"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="7"/>
-      <c r="AG14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH14" s="134">
-        <f t="array" ref="AH14:AM14">C37:H37</f>
-        <v>0.1186894704785002</v>
-      </c>
-      <c r="AI14" s="134">
-        <v>0.1950126776790852</v>
-      </c>
-      <c r="AJ14" s="134">
-        <v>7.2577554433872579E-2</v>
-      </c>
-      <c r="AK14" s="134">
-        <v>6.3976940604897475E-2</v>
-      </c>
-      <c r="AL14" s="134">
-        <v>3.0691992673160064E-2</v>
-      </c>
-      <c r="AM14" s="134">
-        <v>2.9138361711491086E-2</v>
-      </c>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="119">
-        <v>5</v>
-      </c>
-      <c r="D15" s="34">
-        <v>283</v>
-      </c>
-      <c r="E15" s="34">
-        <v>17</v>
-      </c>
-      <c r="F15" s="34">
-        <v>58</v>
-      </c>
-      <c r="G15" s="34">
-        <v>31</v>
-      </c>
-      <c r="H15" s="34">
-        <v>21</v>
-      </c>
-      <c r="I15" s="34">
-        <v>128</v>
-      </c>
-      <c r="J15" s="34">
-        <v>9</v>
-      </c>
-      <c r="K15" s="34">
-        <v>61</v>
-      </c>
-      <c r="L15" s="34">
-        <v>31</v>
-      </c>
-      <c r="M15" s="120">
-        <v>189</v>
-      </c>
-      <c r="N15" s="121">
-        <f>SUM(C15:M15)</f>
-        <v>833</v>
-      </c>
-      <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" s="141">
-        <f t="array" ref="S15:X17">S8:X10/C23:H23</f>
-        <v>219.81289932618239</v>
-      </c>
-      <c r="T15" s="142">
-        <v>379.61526164192327</v>
-      </c>
-      <c r="U15" s="142">
-        <v>39.115032571949449</v>
-      </c>
-      <c r="V15" s="142">
-        <v>89.336076199838729</v>
-      </c>
-      <c r="W15" s="142">
-        <v>11.957006306895293</v>
-      </c>
-      <c r="X15" s="142">
-        <v>33.541029411994003</v>
-      </c>
-      <c r="Y15" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="74">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="75">
-        <v>0</v>
-      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="105"/>
       <c r="AD15" s="7"/>
-      <c r="AE15" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="AG15" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH15" s="134">
-        <f t="array" ref="AH15:AM15">MMULT(AH14:AM14,C83:H88)</f>
-        <v>0.20390633085103396</v>
+        <f t="array" ref="AH15:AM15">C38:H38</f>
+        <v>0.1186894704785002</v>
       </c>
       <c r="AI15" s="134">
-        <v>0.29687592978516625</v>
+        <v>0.1950126776790852</v>
       </c>
       <c r="AJ15" s="134">
-        <v>0.16314784478498723</v>
+        <v>7.2577554433872579E-2</v>
       </c>
       <c r="AK15" s="134">
-        <v>0.11589862164637994</v>
+        <v>6.3976940604897475E-2</v>
       </c>
       <c r="AL15" s="134">
-        <v>5.8928070504583388E-2</v>
+        <v>3.0691992673160064E-2</v>
       </c>
       <c r="AM15" s="134">
-        <v>5.8387942068155924E-2</v>
+        <v>2.9138361711491086E-2</v>
       </c>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
@@ -6952,79 +6911,84 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="110">
-        <v>2</v>
-      </c>
-      <c r="D16" s="31">
-        <v>10</v>
-      </c>
-      <c r="E16" s="31">
-        <v>2</v>
-      </c>
-      <c r="F16" s="31">
-        <v>12</v>
-      </c>
-      <c r="G16" s="31">
+      <c r="B16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="119">
+        <v>5</v>
+      </c>
+      <c r="D16" s="34">
+        <v>283</v>
+      </c>
+      <c r="E16" s="34">
         <v>17</v>
       </c>
-      <c r="H16" s="31">
-        <v>24</v>
-      </c>
-      <c r="I16" s="31">
-        <v>151</v>
-      </c>
-      <c r="J16" s="31">
-        <v>6</v>
-      </c>
-      <c r="K16" s="31">
-        <v>34</v>
-      </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="22">
-        <f t="shared" ref="N16" si="3">SUM(C16:M16)</f>
-        <v>258</v>
+      <c r="F16" s="34">
+        <v>58</v>
+      </c>
+      <c r="G16" s="34">
+        <v>31</v>
+      </c>
+      <c r="H16" s="34">
+        <v>21</v>
+      </c>
+      <c r="I16" s="34">
+        <v>128</v>
+      </c>
+      <c r="J16" s="34">
+        <v>9</v>
+      </c>
+      <c r="K16" s="34">
+        <v>61</v>
+      </c>
+      <c r="L16" s="34">
+        <v>31</v>
+      </c>
+      <c r="M16" s="120">
+        <v>189</v>
+      </c>
+      <c r="N16" s="121">
+        <f>SUM(C16:M16)</f>
+        <v>833</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S16" s="143">
-        <v>29.601153937337951</v>
-      </c>
-      <c r="T16" s="144">
-        <v>0.63740892880973077</v>
-      </c>
-      <c r="U16" s="144">
-        <v>4.269267907874858E-3</v>
-      </c>
-      <c r="V16" s="144">
-        <v>5.4049484304137523E-2</v>
-      </c>
-      <c r="W16" s="144">
-        <v>2.9701928393380708E-3</v>
-      </c>
-      <c r="X16" s="144">
-        <v>1.3875410338805278E-2</v>
-      </c>
-      <c r="Y16" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="108">
+        <v>100</v>
+      </c>
+      <c r="S16" s="141">
+        <f t="array" ref="S16:X18">S9:X11/C24:H24</f>
+        <v>219.81289932618239</v>
+      </c>
+      <c r="T16" s="142">
+        <v>379.61526164192327</v>
+      </c>
+      <c r="U16" s="142">
+        <v>39.115032571949449</v>
+      </c>
+      <c r="V16" s="142">
+        <v>89.336076199838729</v>
+      </c>
+      <c r="W16" s="142">
+        <v>11.957006306895293</v>
+      </c>
+      <c r="X16" s="142">
+        <v>33.541029411994003</v>
+      </c>
+      <c r="Y16" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="74">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="75">
         <v>0</v>
       </c>
       <c r="AD16" s="7"/>
@@ -7032,135 +6996,109 @@
         <v>109</v>
       </c>
       <c r="AG16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH16" s="140">
-        <f t="array" ref="AH16:AM16">AH15:AM15*TRANSPOSE(C93:C98)</f>
-        <v>3.4664076244675774</v>
-      </c>
-      <c r="AI16" s="140">
-        <v>268.67271645557548</v>
-      </c>
-      <c r="AJ16" s="140">
-        <v>25.940507320812969</v>
-      </c>
-      <c r="AK16" s="140">
-        <v>56.558527363433413</v>
-      </c>
-      <c r="AL16" s="140">
-        <v>23.983724695365439</v>
-      </c>
-      <c r="AM16" s="140">
-        <v>36.375687908461138</v>
-      </c>
-      <c r="AN16" s="7">
-        <f t="array" ref="AN16:AR16">I15:M15</f>
-        <v>128</v>
-      </c>
-      <c r="AO16" s="7">
-        <v>9</v>
-      </c>
-      <c r="AP16" s="7">
-        <v>61</v>
-      </c>
-      <c r="AQ16" s="7">
-        <v>31</v>
-      </c>
-      <c r="AR16" s="7">
-        <v>189</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AH16" s="134">
+        <f t="array" ref="AH16:AM16">MMULT(AH15:AM15,C84:H89)</f>
+        <v>0.20390633085103396</v>
+      </c>
+      <c r="AI16" s="134">
+        <v>0.29687592978516625</v>
+      </c>
+      <c r="AJ16" s="134">
+        <v>0.16314784478498723</v>
+      </c>
+      <c r="AK16" s="134">
+        <v>0.11589862164637994</v>
+      </c>
+      <c r="AL16" s="134">
+        <v>5.8928070504583388E-2</v>
+      </c>
+      <c r="AM16" s="134">
+        <v>5.8387942068155924E-2</v>
+      </c>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="159">
-        <f>SUM(C14:C16)</f>
-        <v>27.562059869401477</v>
-      </c>
-      <c r="D17" s="160">
-        <f t="shared" ref="D17:H17" si="4">SUM(D14:D16)</f>
-        <v>1006.211106244486</v>
-      </c>
-      <c r="E17" s="160">
-        <f t="shared" si="4"/>
-        <v>135.48482530187135</v>
-      </c>
-      <c r="F17" s="160">
-        <f t="shared" si="4"/>
-        <v>452.49032005222546</v>
-      </c>
-      <c r="G17" s="160">
-        <f t="shared" si="4"/>
-        <v>402.2366304087559</v>
-      </c>
-      <c r="H17" s="160">
-        <f t="shared" si="4"/>
-        <v>223.84181807424955</v>
-      </c>
-      <c r="I17" s="107">
-        <f t="shared" ref="I17" si="5">SUM(I14:I16)</f>
-        <v>1320</v>
-      </c>
-      <c r="J17" s="107">
-        <f t="shared" ref="J17" si="6">SUM(J14:J16)</f>
-        <v>512</v>
-      </c>
-      <c r="K17" s="107">
-        <f t="shared" ref="K17" si="7">SUM(K14:K16)</f>
-        <v>409</v>
-      </c>
-      <c r="L17" s="107">
-        <f t="shared" ref="L17:M17" si="8">SUM(L14:L16)</f>
-        <v>-18</v>
-      </c>
-      <c r="M17" s="109">
-        <f t="shared" si="8"/>
-        <v>985</v>
-      </c>
-      <c r="N17" s="160">
-        <f t="shared" ref="N17" si="9">SUM(N14:N16)</f>
-        <v>5455.8267599509891</v>
+      <c r="B17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="110">
+        <v>2</v>
+      </c>
+      <c r="D17" s="31">
+        <v>10</v>
+      </c>
+      <c r="E17" s="31">
+        <v>2</v>
+      </c>
+      <c r="F17" s="31">
+        <v>12</v>
+      </c>
+      <c r="G17" s="31">
+        <v>17</v>
+      </c>
+      <c r="H17" s="31">
+        <v>24</v>
+      </c>
+      <c r="I17" s="31">
+        <v>151</v>
+      </c>
+      <c r="J17" s="31">
+        <v>6</v>
+      </c>
+      <c r="K17" s="31">
+        <v>34</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="22">
+        <f t="shared" ref="N17" si="3">SUM(C17:M17)</f>
+        <v>258</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="S17" s="145">
-        <v>3.2520914911109058</v>
-      </c>
-      <c r="T17" s="146">
-        <v>4.2723625498598171E-2</v>
-      </c>
-      <c r="U17" s="146">
-        <v>0</v>
-      </c>
-      <c r="V17" s="146">
-        <v>2.2061014001688783E-3</v>
-      </c>
-      <c r="W17" s="146">
-        <v>0</v>
-      </c>
-      <c r="X17" s="146">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="77">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="77">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="78">
+        <v>101</v>
+      </c>
+      <c r="S17" s="143">
+        <v>29.601153937337951</v>
+      </c>
+      <c r="T17" s="144">
+        <v>0.63740892880973077</v>
+      </c>
+      <c r="U17" s="144">
+        <v>4.269267907874858E-3</v>
+      </c>
+      <c r="V17" s="144">
+        <v>5.4049484304137523E-2</v>
+      </c>
+      <c r="W17" s="144">
+        <v>2.9701928393380708E-3</v>
+      </c>
+      <c r="X17" s="144">
+        <v>1.3875410338805278E-2</v>
+      </c>
+      <c r="Y17" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="108">
         <v>0</v>
       </c>
       <c r="AD17" s="7"/>
@@ -7168,246 +7106,297 @@
         <v>109</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AH17" s="140">
-        <f t="array" ref="AH17:AM17">S15:X15*AH16:AM16</f>
-        <v>761.96111018060265</v>
+        <f t="array" ref="AH17:AM17">AH16:AM16*TRANSPOSE(C94:C99)</f>
+        <v>3.4664076244675774</v>
       </c>
       <c r="AI17" s="140">
-        <v>101992.26355332955</v>
+        <v>268.67271645557548</v>
       </c>
       <c r="AJ17" s="140">
-        <v>1014.6637887864924</v>
+        <v>25.940507320812969</v>
       </c>
       <c r="AK17" s="140">
-        <v>5052.7169102903508</v>
+        <v>56.558527363433413</v>
       </c>
       <c r="AL17" s="140">
-        <v>286.77354744532494</v>
+        <v>23.983724695365439</v>
       </c>
       <c r="AM17" s="140">
-        <v>1220.0780180192096</v>
-      </c>
-      <c r="AN17" s="140">
-        <f t="array" ref="AN17:AR17">MMULT(S18:X18*AH15:AM15,I8:M13)</f>
-        <v>38677.140106302097</v>
-      </c>
-      <c r="AO17" s="140">
-        <v>1959.5260582089722</v>
-      </c>
-      <c r="AP17" s="140">
-        <v>13093.47548980932</v>
-      </c>
-      <c r="AQ17" s="140">
-        <v>-5722.0971688726813</v>
-      </c>
-      <c r="AR17" s="140">
-        <v>78576.278354834707</v>
-      </c>
+        <v>36.375687908461138</v>
+      </c>
+      <c r="AN17" s="7">
+        <f t="array" ref="AN17:AR17">I16:M16</f>
+        <v>128</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>9</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>61</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>31</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>189</v>
+      </c>
+      <c r="AS17" s="7"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="162">
-        <v>5.5646762247301069</v>
-      </c>
-      <c r="D18" s="158">
-        <v>307.97659789907539</v>
-      </c>
-      <c r="E18" s="158">
-        <v>68.747371313256679</v>
-      </c>
-      <c r="F18" s="158">
-        <v>294.0863222756833</v>
-      </c>
-      <c r="G18" s="158">
-        <v>190.79879903109554</v>
-      </c>
-      <c r="H18" s="158">
-        <v>363.85758870531492</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="108"/>
+      <c r="B18" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="159">
+        <f>SUM(C15:C17)</f>
+        <v>27.562059869401477</v>
+      </c>
+      <c r="D18" s="160">
+        <f t="shared" ref="D18:H18" si="4">SUM(D15:D17)</f>
+        <v>1006.211106244486</v>
+      </c>
+      <c r="E18" s="160">
+        <f t="shared" si="4"/>
+        <v>135.48482530187135</v>
+      </c>
+      <c r="F18" s="160">
+        <f t="shared" si="4"/>
+        <v>452.49032005222546</v>
+      </c>
+      <c r="G18" s="160">
+        <f t="shared" si="4"/>
+        <v>402.2366304087559</v>
+      </c>
+      <c r="H18" s="160">
+        <f t="shared" si="4"/>
+        <v>223.84181807424955</v>
+      </c>
+      <c r="I18" s="107">
+        <f t="shared" ref="I18" si="5">SUM(I15:I17)</f>
+        <v>1320</v>
+      </c>
+      <c r="J18" s="107">
+        <f t="shared" ref="J18" si="6">SUM(J15:J17)</f>
+        <v>512</v>
+      </c>
+      <c r="K18" s="107">
+        <f t="shared" ref="K18" si="7">SUM(K15:K17)</f>
+        <v>409</v>
+      </c>
+      <c r="L18" s="107">
+        <f t="shared" ref="L18:M18" si="8">SUM(L15:L17)</f>
+        <v>-18</v>
+      </c>
+      <c r="M18" s="109">
+        <f t="shared" si="8"/>
+        <v>985</v>
+      </c>
       <c r="N18" s="160">
-        <f>SUM(C18:M18)</f>
-        <v>1231.0313554491559</v>
+        <f t="shared" ref="N18" si="9">SUM(N15:N17)</f>
+        <v>5455.8267599509891</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="167">
-        <f t="array" ref="S18:AC18">MMULT(TRANSPOSE(S36:S38),S15:AC17)</f>
-        <v>2195.3753975467225</v>
-      </c>
-      <c r="T18" s="167">
-        <v>414.0188056200364</v>
-      </c>
-      <c r="U18" s="167">
-        <v>39.260187680817197</v>
-      </c>
-      <c r="V18" s="167">
-        <v>91.831176883429734</v>
-      </c>
-      <c r="W18" s="167">
-        <v>12.057992863432787</v>
-      </c>
-      <c r="X18" s="167">
-        <v>34.012793363513381</v>
-      </c>
-      <c r="Y18" s="167">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="167">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="167">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="167">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="167">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="167"/>
+      <c r="R18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S18" s="145">
+        <v>3.2520914911109058</v>
+      </c>
+      <c r="T18" s="146">
+        <v>4.2723625498598171E-2</v>
+      </c>
+      <c r="U18" s="146">
+        <v>0</v>
+      </c>
+      <c r="V18" s="146">
+        <v>2.2061014001688783E-3</v>
+      </c>
+      <c r="W18" s="146">
+        <v>0</v>
+      </c>
+      <c r="X18" s="146">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="77">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="77">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="77">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="78">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7"/>
       <c r="AE18" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AG18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="AH18" s="140">
+        <f t="array" ref="AH18:AM18">S16:X16*AH17:AM17</f>
+        <v>761.96111018060265</v>
+      </c>
+      <c r="AI18" s="140">
+        <v>101992.26355332955</v>
+      </c>
+      <c r="AJ18" s="140">
+        <v>1014.6637887864924</v>
+      </c>
+      <c r="AK18" s="140">
+        <v>5052.7169102903508</v>
+      </c>
+      <c r="AL18" s="140">
+        <v>286.77354744532494</v>
+      </c>
+      <c r="AM18" s="140">
+        <v>1220.0780180192096</v>
       </c>
       <c r="AN18" s="140">
-        <f t="array" ref="AN18:AR18">AN16:AR16*AD33</f>
-        <v>24134.624998729061</v>
+        <f t="array" ref="AN18:AR18">MMULT(S19:X19*AH16:AM16,I9:M14)</f>
+        <v>38677.140106302097</v>
       </c>
       <c r="AO18" s="140">
-        <v>1696.9658202231371</v>
+        <v>1959.5260582089722</v>
       </c>
       <c r="AP18" s="140">
-        <v>11501.657225956818</v>
+        <v>13093.47548980932</v>
       </c>
       <c r="AQ18" s="140">
-        <v>5845.1044918796943</v>
+        <v>-5722.0971688726813</v>
       </c>
       <c r="AR18" s="140">
-        <v>35636.282224685878</v>
-      </c>
-      <c r="AS18" s="7" t="s">
-        <v>116</v>
+        <v>78576.278354834707</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="110">
-        <v>-6</v>
-      </c>
-      <c r="D19" s="31">
-        <v>-2</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="31">
-        <v>5</v>
-      </c>
-      <c r="H19" s="31">
-        <v>-7</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="162">
+        <v>5.5646762247301069</v>
+      </c>
+      <c r="D19" s="158">
+        <v>307.97659789907539</v>
+      </c>
+      <c r="E19" s="158">
+        <v>68.747371313256679</v>
+      </c>
+      <c r="F19" s="158">
+        <v>294.0863222756833</v>
+      </c>
+      <c r="G19" s="158">
+        <v>190.79879903109554</v>
+      </c>
+      <c r="H19" s="158">
+        <v>363.85758870531492</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
       <c r="M19" s="108"/>
-      <c r="N19" s="107">
-        <f t="shared" ref="N19:N22" si="10">SUM(C19:M19)</f>
-        <v>-11</v>
+      <c r="N19" s="160">
+        <f>SUM(C19:M19)</f>
+        <v>1231.0313554491559</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="167">
+        <f t="array" ref="S19:AC19">MMULT(TRANSPOSE(S37:S39),S16:AC18)</f>
+        <v>2195.3753975467225</v>
+      </c>
+      <c r="T19" s="167">
+        <v>414.0188056200364</v>
+      </c>
+      <c r="U19" s="167">
+        <v>39.260187680817197</v>
+      </c>
+      <c r="V19" s="167">
+        <v>91.831176883429734</v>
+      </c>
+      <c r="W19" s="167">
+        <v>12.057992863432787</v>
+      </c>
+      <c r="X19" s="167">
+        <v>34.012793363513381</v>
+      </c>
+      <c r="Y19" s="167">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="167">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="167">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="167">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="167">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="167"/>
+      <c r="AE19" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="AG19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
+        <v>136</v>
+      </c>
       <c r="AN19" s="140">
-        <f>AN17+AN18</f>
-        <v>62811.765105031154</v>
+        <f t="array" ref="AN19:AR19">AN17:AR17*AD34</f>
+        <v>24134.624998729061</v>
       </c>
       <c r="AO19" s="140">
-        <f t="shared" ref="AO19:AR19" si="11">AO17+AO18</f>
-        <v>3656.4918784321094</v>
+        <v>1696.9658202231371</v>
       </c>
       <c r="AP19" s="140">
-        <f t="shared" si="11"/>
-        <v>24595.132715766136</v>
+        <v>11501.657225956818</v>
       </c>
       <c r="AQ19" s="140">
-        <f t="shared" si="11"/>
-        <v>123.00732300701293</v>
+        <v>5845.1044918796943</v>
       </c>
       <c r="AR19" s="140">
-        <f t="shared" si="11"/>
-        <v>114212.56057952059</v>
-      </c>
-      <c r="AS19" s="7"/>
+        <v>35636.282224685878</v>
+      </c>
+      <c r="AS19" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="110">
-        <v>8</v>
+        <v>-6</v>
       </c>
       <c r="D20" s="31">
-        <v>79</v>
-      </c>
-      <c r="E20" s="31">
+        <v>-2</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="31">
         <v>5</v>
       </c>
-      <c r="F20" s="31">
-        <v>60</v>
-      </c>
-      <c r="G20" s="31">
-        <v>160</v>
-      </c>
       <c r="H20" s="31">
-        <v>63</v>
+        <v>-7</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -7415,70 +7404,84 @@
       <c r="L20" s="31"/>
       <c r="M20" s="108"/>
       <c r="N20" s="107">
-        <f t="shared" si="10"/>
-        <v>375</v>
+        <f t="shared" ref="N20:N23" si="10">SUM(C20:M20)</f>
+        <v>-11</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="135" t="s">
-        <v>110</v>
-      </c>
-      <c r="S20" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="U20" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="V20" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="W20" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="X20" s="105" t="s">
-        <v>61</v>
-      </c>
+      <c r="R20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
       <c r="Y20" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB20" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC20" s="105" t="s">
-        <v>15</v>
-      </c>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
       <c r="AD20" s="7"/>
-    </row>
-    <row r="21" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="140">
+        <f>AN18+AN19</f>
+        <v>62811.765105031154</v>
+      </c>
+      <c r="AO20" s="140">
+        <f t="shared" ref="AO20:AR20" si="11">AO18+AO19</f>
+        <v>3656.4918784321094</v>
+      </c>
+      <c r="AP20" s="140">
+        <f t="shared" si="11"/>
+        <v>24595.132715766136</v>
+      </c>
+      <c r="AQ20" s="140">
+        <f t="shared" si="11"/>
+        <v>123.00732300701293</v>
+      </c>
+      <c r="AR20" s="140">
+        <f t="shared" si="11"/>
+        <v>114212.56057952059</v>
+      </c>
+      <c r="AS20" s="7"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="31">
+        <v>79</v>
+      </c>
+      <c r="E21" s="31">
+        <v>5</v>
+      </c>
+      <c r="F21" s="31">
         <v>60</v>
       </c>
-      <c r="E21" s="31">
-        <v>25</v>
-      </c>
-      <c r="F21" s="31">
-        <v>101</v>
-      </c>
       <c r="G21" s="31">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="H21" s="31">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -7487,199 +7490,176 @@
       <c r="M21" s="108"/>
       <c r="N21" s="107">
         <f t="shared" si="10"/>
-        <v>522</v>
+        <v>375</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA21" s="105"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="105"/>
+      <c r="R21" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="W21" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB21" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC21" s="105" t="s">
+        <v>15</v>
+      </c>
       <c r="AD21" s="7"/>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="111">
-        <f>SUM(C18:C21)</f>
-        <v>14.564676224730107</v>
-      </c>
-      <c r="D22" s="112">
-        <f t="shared" ref="D22:H22" si="12">SUM(D18:D21)</f>
-        <v>444.97659789907539</v>
-      </c>
-      <c r="E22" s="112">
-        <f t="shared" si="12"/>
-        <v>98.747371313256679</v>
-      </c>
-      <c r="F22" s="112">
-        <f t="shared" si="12"/>
-        <v>454.0863222756833</v>
-      </c>
-      <c r="G22" s="112">
-        <f t="shared" si="12"/>
-        <v>607.79879903109554</v>
-      </c>
-      <c r="H22" s="112">
-        <f t="shared" si="12"/>
-        <v>496.85758870531492</v>
-      </c>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="160">
+      <c r="B22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="110">
+        <v>7</v>
+      </c>
+      <c r="D22" s="31">
+        <v>60</v>
+      </c>
+      <c r="E22" s="31">
+        <v>25</v>
+      </c>
+      <c r="F22" s="31">
+        <v>101</v>
+      </c>
+      <c r="G22" s="31">
+        <v>252</v>
+      </c>
+      <c r="H22" s="31">
+        <v>77</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="107">
         <f t="shared" si="10"/>
-        <v>2117.0313554491559</v>
+        <v>522</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S22" s="141">
-        <f t="array" ref="S22:X24">MMULT(S15:X17,C83:H88)</f>
-        <v>361.09154498046684</v>
-      </c>
-      <c r="T22" s="142">
-        <v>558.25043226076741</v>
-      </c>
-      <c r="U22" s="142">
-        <v>187.09578148976811</v>
-      </c>
-      <c r="V22" s="142">
-        <v>165.39734245052207</v>
-      </c>
-      <c r="W22" s="142">
-        <v>41.323551019337245</v>
-      </c>
-      <c r="X22" s="142">
-        <v>76.901795303219899</v>
-      </c>
-      <c r="Y22" s="74">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="74">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="75">
-        <v>0</v>
-      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="105"/>
+      <c r="Y22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="105"/>
+      <c r="AB22" s="105"/>
+      <c r="AC22" s="105"/>
       <c r="AD22" s="7"/>
-      <c r="AE22" s="7" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="161">
-        <f>SUM(C17+C22)</f>
-        <v>42.126736094131587</v>
-      </c>
-      <c r="D23" s="161">
-        <f t="shared" ref="D23:M23" si="13">SUM(D17+D22)</f>
-        <v>1451.1877041435614</v>
-      </c>
-      <c r="E23" s="161">
-        <f t="shared" si="13"/>
-        <v>234.23219661512803</v>
-      </c>
-      <c r="F23" s="161">
-        <f t="shared" si="13"/>
-        <v>906.57664232790876</v>
-      </c>
-      <c r="G23" s="161">
-        <f t="shared" si="13"/>
-        <v>1010.0354294398514</v>
-      </c>
-      <c r="H23" s="161">
-        <f t="shared" si="13"/>
-        <v>720.69940677956447</v>
-      </c>
-      <c r="I23" s="22">
-        <f t="shared" si="13"/>
-        <v>1320</v>
-      </c>
-      <c r="J23" s="22">
-        <f t="shared" si="13"/>
-        <v>512</v>
-      </c>
-      <c r="K23" s="22">
-        <f t="shared" si="13"/>
-        <v>409</v>
-      </c>
-      <c r="L23" s="22">
-        <f t="shared" si="13"/>
-        <v>-18</v>
-      </c>
-      <c r="M23" s="22">
-        <f t="shared" si="13"/>
-        <v>985</v>
-      </c>
-      <c r="N23" s="7"/>
+      <c r="B23" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="111">
+        <f>SUM(C19:C22)</f>
+        <v>14.564676224730107</v>
+      </c>
+      <c r="D23" s="112">
+        <f t="shared" ref="D23:H23" si="12">SUM(D19:D22)</f>
+        <v>444.97659789907539</v>
+      </c>
+      <c r="E23" s="112">
+        <f t="shared" si="12"/>
+        <v>98.747371313256679</v>
+      </c>
+      <c r="F23" s="112">
+        <f t="shared" si="12"/>
+        <v>454.0863222756833</v>
+      </c>
+      <c r="G23" s="112">
+        <f t="shared" si="12"/>
+        <v>607.79879903109554</v>
+      </c>
+      <c r="H23" s="112">
+        <f t="shared" si="12"/>
+        <v>496.85758870531492</v>
+      </c>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="160">
+        <f t="shared" si="10"/>
+        <v>2117.0313554491559</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S23" s="143">
-        <v>32.175953366186675</v>
-      </c>
-      <c r="T23" s="144">
-        <v>1.5660450725117698</v>
-      </c>
-      <c r="U23" s="144">
-        <v>0.38093255728238989</v>
-      </c>
-      <c r="V23" s="144">
-        <v>0.20511849524527254</v>
-      </c>
-      <c r="W23" s="144">
-        <v>5.4915094326202597E-2</v>
-      </c>
-      <c r="X23" s="144">
-        <v>0.15428636238850116</v>
-      </c>
-      <c r="Y23" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="108">
+        <v>100</v>
+      </c>
+      <c r="S23" s="141">
+        <f t="array" ref="S23:X25">MMULT(S16:X18,C84:H89)</f>
+        <v>361.09154498046684</v>
+      </c>
+      <c r="T23" s="142">
+        <v>558.25043226076741</v>
+      </c>
+      <c r="U23" s="142">
+        <v>187.09578148976811</v>
+      </c>
+      <c r="V23" s="142">
+        <v>165.39734245052207</v>
+      </c>
+      <c r="W23" s="142">
+        <v>41.323551019337245</v>
+      </c>
+      <c r="X23" s="142">
+        <v>76.901795303219899</v>
+      </c>
+      <c r="Y23" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="74">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="75">
         <v>0</v>
       </c>
       <c r="AD23" s="7"/>
@@ -7689,67 +7669,101 @@
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="161">
+        <f>SUM(C18+C23)</f>
+        <v>42.126736094131587</v>
+      </c>
+      <c r="D24" s="161">
+        <f t="shared" ref="D24:M24" si="13">SUM(D18+D23)</f>
+        <v>1451.1877041435614</v>
+      </c>
+      <c r="E24" s="161">
+        <f t="shared" si="13"/>
+        <v>234.23219661512803</v>
+      </c>
+      <c r="F24" s="161">
+        <f t="shared" si="13"/>
+        <v>906.57664232790876</v>
+      </c>
+      <c r="G24" s="161">
+        <f t="shared" si="13"/>
+        <v>1010.0354294398514</v>
+      </c>
+      <c r="H24" s="161">
+        <f t="shared" si="13"/>
+        <v>720.69940677956447</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="13"/>
+        <v>1320</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="13"/>
+        <v>512</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="13"/>
+        <v>409</v>
+      </c>
+      <c r="L24" s="22">
+        <f t="shared" si="13"/>
+        <v>-18</v>
+      </c>
+      <c r="M24" s="22">
+        <f t="shared" si="13"/>
+        <v>985</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="S24" s="145">
-        <v>3.526808315108839</v>
-      </c>
-      <c r="T24" s="146">
-        <v>0.13293036561473737</v>
-      </c>
-      <c r="U24" s="146">
-        <v>3.1621555843997541E-2</v>
-      </c>
-      <c r="V24" s="146">
-        <v>1.432909684951773E-2</v>
-      </c>
-      <c r="W24" s="146">
-        <v>4.1322702059128236E-3</v>
-      </c>
-      <c r="X24" s="146">
-        <v>1.2788765239924128E-2</v>
-      </c>
-      <c r="Y24" s="77">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="77">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="78">
-        <v>0</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="S24" s="143">
+        <v>32.175953366186675</v>
+      </c>
+      <c r="T24" s="144">
+        <v>1.5660450725117698</v>
+      </c>
+      <c r="U24" s="144">
+        <v>0.38093255728238989</v>
+      </c>
+      <c r="V24" s="144">
+        <v>0.20511849524527254</v>
+      </c>
+      <c r="W24" s="144">
+        <v>5.4915094326202597E-2</v>
+      </c>
+      <c r="X24" s="144">
+        <v>0.15428636238850116</v>
+      </c>
+      <c r="Y24" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="108">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7"/>
       <c r="AE24" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -7765,50 +7779,50 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="167">
-        <f t="array" ref="S25:AC25">MMULT(TRANSPOSE(S36:S38),S22:AC24)</f>
-        <v>2506.0628373332479</v>
-      </c>
-      <c r="T25" s="167">
-        <v>651.1092136793593</v>
-      </c>
-      <c r="U25" s="167">
-        <v>209.47071207888064</v>
-      </c>
-      <c r="V25" s="167">
-        <v>176.64144215001764</v>
-      </c>
-      <c r="W25" s="167">
-        <v>44.422080747790154</v>
-      </c>
-      <c r="X25" s="167">
-        <v>85.958583665926326</v>
-      </c>
-      <c r="Y25" s="167">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="167">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="167">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="167">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="167">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="167"/>
+      <c r="R25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25" s="145">
+        <v>3.526808315108839</v>
+      </c>
+      <c r="T25" s="146">
+        <v>0.13293036561473737</v>
+      </c>
+      <c r="U25" s="146">
+        <v>3.1621555843997541E-2</v>
+      </c>
+      <c r="V25" s="146">
+        <v>1.432909684951773E-2</v>
+      </c>
+      <c r="W25" s="146">
+        <v>4.1322702059128236E-3</v>
+      </c>
+      <c r="X25" s="146">
+        <v>1.2788765239924128E-2</v>
+      </c>
+      <c r="Y25" s="77">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="77">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="77">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="78">
+        <v>0</v>
+      </c>
       <c r="AE25" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>82</v>
+      <c r="B26" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -7825,32 +7839,50 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="105" t="s">
-        <v>71</v>
+      <c r="R26" s="7"/>
+      <c r="S26" s="167">
+        <f t="array" ref="S26:AC26">MMULT(TRANSPOSE(S37:S39),S23:AC25)</f>
+        <v>2506.0628373332479</v>
+      </c>
+      <c r="T26" s="167">
+        <v>651.1092136793593</v>
+      </c>
+      <c r="U26" s="167">
+        <v>209.47071207888064</v>
+      </c>
+      <c r="V26" s="167">
+        <v>176.64144215001764</v>
+      </c>
+      <c r="W26" s="167">
+        <v>44.422080747790154</v>
+      </c>
+      <c r="X26" s="167">
+        <v>85.958583665926326</v>
+      </c>
+      <c r="Y26" s="167">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="167">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="167">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="167">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="167">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="167"/>
+      <c r="AE26" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -7867,229 +7899,205 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="S27" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="U27" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="V27" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="W27" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="X27" s="105" t="s">
-        <v>61</v>
-      </c>
+      <c r="R27" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
       <c r="Y27" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB27" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC27" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD27" s="105"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="105" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="135" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
+      <c r="R28" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="T28" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="W28" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="X28" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB28" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC28" s="105" t="s">
+        <v>15</v>
+      </c>
       <c r="AD28" s="105"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="105" t="s">
-        <v>61</v>
-      </c>
+      <c r="B29" s="135" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="105" t="s">
-        <v>15</v>
-      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S29" s="149">
-        <f t="array" ref="S29:X31">S22:X24*TRANSPOSE(C93:C98)</f>
-        <v>6138.5562646679364</v>
-      </c>
-      <c r="T29" s="150">
-        <v>505216.64119599451</v>
-      </c>
-      <c r="U29" s="150">
-        <v>29748.229256873132</v>
-      </c>
-      <c r="V29" s="150">
-        <v>80713.903115854773</v>
-      </c>
-      <c r="W29" s="150">
-        <v>16818.685264870259</v>
-      </c>
-      <c r="X29" s="150">
-        <v>47909.818473905994</v>
-      </c>
-      <c r="Y29" s="74">
-        <f t="array" ref="Y29:Y31">Y8:Y10</f>
-        <v>222268</v>
-      </c>
-      <c r="Z29" s="74">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="74">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="74">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="75">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="148">
-        <f>SUM(S29:AC29)</f>
-        <v>908813.83357216674</v>
-      </c>
-      <c r="AE29" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="105"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="105"/>
+      <c r="AB29" s="105"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="105"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
+      <c r="C30" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="105" t="s">
+        <v>15</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S30" s="151">
-        <v>546.99120722517353</v>
-      </c>
-      <c r="T30" s="152">
-        <v>1417.2707906231517</v>
-      </c>
-      <c r="U30" s="152">
-        <v>60.568276607899996</v>
-      </c>
-      <c r="V30" s="152">
-        <v>100.097825679693</v>
-      </c>
-      <c r="W30" s="152">
-        <v>22.350443390764458</v>
-      </c>
-      <c r="X30" s="152">
-        <v>96.120403768036226</v>
-      </c>
-      <c r="Y30" s="31">
-        <v>79</v>
-      </c>
-      <c r="Z30" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="108">
+        <v>100</v>
+      </c>
+      <c r="S30" s="149">
+        <f t="array" ref="S30:X32">S23:X25*TRANSPOSE(C94:C99)</f>
+        <v>6138.5562646679364</v>
+      </c>
+      <c r="T30" s="150">
+        <v>505216.64119599451</v>
+      </c>
+      <c r="U30" s="150">
+        <v>29748.229256873132</v>
+      </c>
+      <c r="V30" s="150">
+        <v>80713.903115854773</v>
+      </c>
+      <c r="W30" s="150">
+        <v>16818.685264870259</v>
+      </c>
+      <c r="X30" s="150">
+        <v>47909.818473905994</v>
+      </c>
+      <c r="Y30" s="74">
+        <f t="array" ref="Y30:Y32">Y9:Y11</f>
+        <v>222268</v>
+      </c>
+      <c r="Z30" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="74">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="74">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="75">
         <v>0</v>
       </c>
       <c r="AD30" s="148">
         <f>SUM(S30:AC30)</f>
-        <v>2322.3989472947196</v>
+        <v>908813.83357216674</v>
       </c>
       <c r="AE30" s="7" t="s">
         <v>103</v>
@@ -8097,87 +8105,65 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="114">
-        <f t="array" ref="C31:H36">C8:H13/C23:H23</f>
-        <v>7.1061966703544949E-2</v>
-      </c>
-      <c r="D31" s="80">
-        <v>1.4745399186791472E-2</v>
-      </c>
-      <c r="E31" s="80">
-        <v>0</v>
-      </c>
-      <c r="F31" s="80">
-        <v>0</v>
-      </c>
-      <c r="G31" s="80">
-        <v>0</v>
-      </c>
-      <c r="H31" s="80">
-        <v>1.3923176403892305E-3</v>
-      </c>
-      <c r="I31" s="80">
-        <f t="array" ref="I31:M36">I8:M13/I23:M23</f>
-        <v>6.8181818181818179E-3</v>
-      </c>
-      <c r="J31" s="80">
-        <v>0</v>
-      </c>
-      <c r="K31" s="80">
-        <v>0</v>
-      </c>
-      <c r="L31" s="80">
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="M31" s="81">
-        <v>5.076142131979695E-3</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="S31" s="153">
-        <v>59.955741356850261</v>
-      </c>
-      <c r="T31" s="154">
-        <v>120.30198088133731</v>
-      </c>
-      <c r="U31" s="154">
-        <v>5.0278273791956094</v>
-      </c>
-      <c r="V31" s="154">
-        <v>6.992599262564652</v>
-      </c>
-      <c r="W31" s="154">
-        <v>1.6818339738065191</v>
-      </c>
-      <c r="X31" s="154">
-        <v>7.9674007444727319</v>
-      </c>
-      <c r="Y31" s="77">
-        <v>4</v>
-      </c>
-      <c r="Z31" s="77">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="77">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="77">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="78">
+        <v>101</v>
+      </c>
+      <c r="S31" s="151">
+        <v>546.99120722517353</v>
+      </c>
+      <c r="T31" s="152">
+        <v>1417.2707906231517</v>
+      </c>
+      <c r="U31" s="152">
+        <v>60.568276607899996</v>
+      </c>
+      <c r="V31" s="152">
+        <v>100.097825679693</v>
+      </c>
+      <c r="W31" s="152">
+        <v>22.350443390764458</v>
+      </c>
+      <c r="X31" s="152">
+        <v>96.120403768036226</v>
+      </c>
+      <c r="Y31" s="31">
+        <v>79</v>
+      </c>
+      <c r="Z31" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="31">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="108">
         <v>0</v>
       </c>
       <c r="AD31" s="148">
-        <f t="shared" ref="AD31" si="14">SUM(S31:AC31)</f>
-        <v>205.9273835982271</v>
+        <f>SUM(S31:AC31)</f>
+        <v>2322.3989472947196</v>
       </c>
       <c r="AE31" s="7" t="s">
         <v>103</v>
@@ -8186,293 +8172,320 @@
     <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="115">
-        <v>0.16126382204102915</v>
-      </c>
-      <c r="D32" s="69">
-        <v>0.27133055030961073</v>
-      </c>
-      <c r="E32" s="69">
-        <v>0.20663778620516193</v>
-      </c>
-      <c r="F32" s="69">
-        <v>6.1969100083461341E-2</v>
-      </c>
-      <c r="G32" s="69">
-        <v>1.0890657046346714E-2</v>
-      </c>
-      <c r="H32" s="69">
-        <v>4.1513079938811238E-2</v>
-      </c>
-      <c r="I32" s="69">
-        <v>0.18939393939393939</v>
-      </c>
-      <c r="J32" s="69">
-        <v>1.3671875E-2</v>
-      </c>
-      <c r="K32" s="69">
-        <v>0.23227383863080683</v>
-      </c>
-      <c r="L32" s="69">
-        <v>3.2222222222222223</v>
-      </c>
-      <c r="M32" s="127">
-        <v>0.62030456852791882</v>
+        <v>4</v>
+      </c>
+      <c r="C32" s="114">
+        <f t="array" ref="C32:H37">C9:H14/C24:H24</f>
+        <v>7.1061966703544949E-2</v>
+      </c>
+      <c r="D32" s="80">
+        <v>1.4745399186791472E-2</v>
+      </c>
+      <c r="E32" s="80">
+        <v>0</v>
+      </c>
+      <c r="F32" s="80">
+        <v>0</v>
+      </c>
+      <c r="G32" s="80">
+        <v>0</v>
+      </c>
+      <c r="H32" s="80">
+        <v>1.3923176403892305E-3</v>
+      </c>
+      <c r="I32" s="80">
+        <f t="array" ref="I32:M37">I9:M14/I24:M24</f>
+        <v>6.8181818181818179E-3</v>
+      </c>
+      <c r="J32" s="80">
+        <v>0</v>
+      </c>
+      <c r="K32" s="80">
+        <v>0</v>
+      </c>
+      <c r="L32" s="80">
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="M32" s="81">
+        <v>5.076142131979695E-3</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="167">
-        <f t="array" ref="S32:AD32">MMULT(TRANSPOSE(S36:S38),S29:AD31)</f>
-        <v>42603.068234665217</v>
-      </c>
-      <c r="T32" s="167">
-        <v>589253.83837982023</v>
-      </c>
-      <c r="U32" s="167">
-        <v>33305.843220542025</v>
-      </c>
-      <c r="V32" s="167">
-        <v>86201.023769208608</v>
-      </c>
-      <c r="W32" s="167">
-        <v>18079.786864350594</v>
-      </c>
-      <c r="X32" s="167">
-        <v>53552.197623872104</v>
-      </c>
-      <c r="Y32" s="167">
-        <v>226146</v>
-      </c>
-      <c r="Z32" s="167">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="167">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="167">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="167">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="167">
-        <v>1049141.7580924588</v>
+      <c r="R32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S32" s="153">
+        <v>59.955741356850261</v>
+      </c>
+      <c r="T32" s="154">
+        <v>120.30198088133731</v>
+      </c>
+      <c r="U32" s="154">
+        <v>5.0278273791956094</v>
+      </c>
+      <c r="V32" s="154">
+        <v>6.992599262564652</v>
+      </c>
+      <c r="W32" s="154">
+        <v>1.6818339738065191</v>
+      </c>
+      <c r="X32" s="154">
+        <v>7.9674007444727319</v>
+      </c>
+      <c r="Y32" s="77">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="77">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="77">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="77">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="78">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="148">
+        <f t="shared" ref="AD32" si="14">SUM(S32:AC32)</f>
+        <v>205.9273835982271</v>
       </c>
       <c r="AE32" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="115">
-        <v>2.3624869424019836E-2</v>
+        <v>0.16126382204102915</v>
       </c>
       <c r="D33" s="69">
-        <v>7.5363115777209661E-3</v>
+        <v>0.27133055030961073</v>
       </c>
       <c r="E33" s="69">
-        <v>7.6365697707167335E-2</v>
+        <v>0.20663778620516193</v>
       </c>
       <c r="F33" s="69">
-        <v>8.7914952840121106E-3</v>
+        <v>6.1969100083461341E-2</v>
       </c>
       <c r="G33" s="69">
-        <v>2.7316068905967706E-2</v>
+        <v>1.0890657046346714E-2</v>
       </c>
       <c r="H33" s="69">
-        <v>1.3790285435351728E-2</v>
+        <v>4.1513079938811238E-2</v>
       </c>
       <c r="I33" s="69">
-        <v>3.787878787878788E-3</v>
+        <v>0.18939393939393939</v>
       </c>
       <c r="J33" s="69">
-        <v>0</v>
+        <v>1.3671875E-2</v>
       </c>
       <c r="K33" s="69">
-        <v>0.37408312958435208</v>
+        <v>0.23227383863080683</v>
       </c>
       <c r="L33" s="69">
-        <v>0</v>
+        <v>3.2222222222222223</v>
       </c>
       <c r="M33" s="127">
-        <v>1.0152284263959391E-3</v>
+        <v>0.62030456852791882</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD33" s="166">
-        <f>SUM(S32:X32)/N14</f>
-        <v>188.55175780257079</v>
+      <c r="R33" s="7"/>
+      <c r="S33" s="167">
+        <f t="array" ref="S33:AD33">MMULT(TRANSPOSE(S37:S39),S30:AD32)</f>
+        <v>42603.068234665217</v>
+      </c>
+      <c r="T33" s="167">
+        <v>589253.83837982023</v>
+      </c>
+      <c r="U33" s="167">
+        <v>33305.843220542025</v>
+      </c>
+      <c r="V33" s="167">
+        <v>86201.023769208608</v>
+      </c>
+      <c r="W33" s="167">
+        <v>18079.786864350594</v>
+      </c>
+      <c r="X33" s="167">
+        <v>53552.197623872104</v>
+      </c>
+      <c r="Y33" s="167">
+        <v>226146</v>
+      </c>
+      <c r="Z33" s="167">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="167">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="167">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="167">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="167">
+        <v>1049141.7580924588</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="115">
-        <v>9.3330132423553411E-2</v>
+        <v>2.3624869424019836E-2</v>
       </c>
       <c r="D34" s="69">
-        <v>9.5190519246761224E-2</v>
+        <v>7.5363115777209661E-3</v>
       </c>
       <c r="E34" s="69">
-        <v>7.2742204614001701E-2</v>
+        <v>7.6365697707167335E-2</v>
       </c>
       <c r="F34" s="69">
-        <v>0.20019253204022786</v>
+        <v>8.7914952840121106E-3</v>
       </c>
       <c r="G34" s="69">
-        <v>3.7560677302048671E-2</v>
+        <v>2.7316068905967706E-2</v>
       </c>
       <c r="H34" s="69">
-        <v>5.520553138015083E-2</v>
+        <v>1.3790285435351728E-2</v>
       </c>
       <c r="I34" s="69">
-        <v>0.24015151515151514</v>
+        <v>3.787878787878788E-3</v>
       </c>
       <c r="J34" s="69">
-        <v>2.9296875E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="69">
-        <v>9.5354523227383858E-2</v>
+        <v>0.37408312958435208</v>
       </c>
       <c r="L34" s="69">
-        <v>-0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M34" s="127">
-        <v>0.11269035532994924</v>
+        <v>1.0152284263959391E-3</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
+      <c r="R34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD34" s="166">
+        <f>SUM(S33:X33)/N15</f>
+        <v>188.55175780257079</v>
+      </c>
+      <c r="AE34" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="115">
-        <v>0.13881920897714875</v>
+        <v>9.3330132423553411E-2</v>
       </c>
       <c r="D35" s="69">
-        <v>9.0195901835291553E-2</v>
+        <v>9.5190519246761224E-2</v>
       </c>
       <c r="E35" s="69">
-        <v>0.12873348302982238</v>
+        <v>7.2742204614001701E-2</v>
       </c>
       <c r="F35" s="69">
-        <v>0.13766105329271314</v>
+        <v>0.20019253204022786</v>
       </c>
       <c r="G35" s="69">
-        <v>0.25803541437804867</v>
+        <v>3.7560677302048671E-2</v>
       </c>
       <c r="H35" s="69">
-        <v>7.0420548031142519E-2</v>
+        <v>5.520553138015083E-2</v>
       </c>
       <c r="I35" s="69">
-        <v>0.23712121212121212</v>
+        <v>0.24015151515151514</v>
       </c>
       <c r="J35" s="69">
-        <v>5.859375E-3</v>
+        <v>2.9296875E-2</v>
       </c>
       <c r="K35" s="69">
-        <v>6.1124694376528114E-2</v>
+        <v>9.5354523227383858E-2</v>
       </c>
       <c r="L35" s="69">
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="M35" s="127">
-        <v>6.7005076142131983E-2</v>
+        <v>0.11269035532994924</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="115">
-        <v>0</v>
+        <v>0.13881920897714875</v>
       </c>
       <c r="D36" s="69">
-        <v>1.246848243463587E-2</v>
+        <v>9.0195901835291553E-2</v>
       </c>
       <c r="E36" s="69">
-        <v>1.2825754859535217E-2</v>
+        <v>0.12873348302982238</v>
       </c>
       <c r="F36" s="69">
-        <v>1.3292034608714056E-2</v>
+        <v>0.13766105329271314</v>
       </c>
       <c r="G36" s="69">
-        <v>1.6914216724699376E-2</v>
+        <v>0.25803541437804867</v>
       </c>
       <c r="H36" s="69">
-        <v>6.5828598725971965E-2</v>
+        <v>7.0420548031142519E-2</v>
       </c>
       <c r="I36" s="69">
-        <v>0.11136363636363636</v>
+        <v>0.23712121212121212</v>
       </c>
       <c r="J36" s="69">
-        <v>0.921875</v>
+        <v>5.859375E-3</v>
       </c>
       <c r="K36" s="69">
-        <v>4.8899755501222494E-3</v>
+        <v>6.1124694376528114E-2</v>
       </c>
       <c r="L36" s="69">
         <v>0</v>
       </c>
       <c r="M36" s="127">
-        <v>2.0304568527918783E-3</v>
+        <v>6.7005076142131983E-2</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S36" s="163">
-        <v>1</v>
-      </c>
-      <c r="T36" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="R36" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
@@ -8485,57 +8498,51 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="122">
-        <f t="array" ref="C37:H38">C15:H16/C23:H23</f>
-        <v>0.1186894704785002</v>
-      </c>
-      <c r="D37" s="123">
-        <v>0.1950126776790852</v>
-      </c>
-      <c r="E37" s="123">
-        <v>7.2577554433872579E-2</v>
-      </c>
-      <c r="F37" s="123">
-        <v>6.3976940604897475E-2</v>
-      </c>
-      <c r="G37" s="123">
-        <v>3.0691992673160064E-2</v>
-      </c>
-      <c r="H37" s="123">
-        <v>2.9138361711491086E-2</v>
-      </c>
-      <c r="I37" s="123">
-        <f t="array" aca="1" ref="I37:M38" ca="1">I15:M16/I43:M43</f>
-        <v>7.4843887643742661</v>
-      </c>
-      <c r="J37" s="123">
-        <f ca="1"/>
-        <v>2.0507548628736156</v>
-      </c>
-      <c r="K37" s="123">
-        <f ca="1"/>
-        <v>6.0168391977391611</v>
-      </c>
-      <c r="L37" s="123">
-        <f ca="1"/>
-        <v>4.3706097000231967</v>
-      </c>
-      <c r="M37" s="128">
-        <f ca="1"/>
-        <v>13.349602788086203</v>
+      <c r="B37" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="115">
+        <v>0</v>
+      </c>
+      <c r="D37" s="69">
+        <v>1.246848243463587E-2</v>
+      </c>
+      <c r="E37" s="69">
+        <v>1.2825754859535217E-2</v>
+      </c>
+      <c r="F37" s="69">
+        <v>1.3292034608714056E-2</v>
+      </c>
+      <c r="G37" s="69">
+        <v>1.6914216724699376E-2</v>
+      </c>
+      <c r="H37" s="69">
+        <v>6.5828598725971965E-2</v>
+      </c>
+      <c r="I37" s="69">
+        <v>0.11136363636363636</v>
+      </c>
+      <c r="J37" s="69">
+        <v>0.921875</v>
+      </c>
+      <c r="K37" s="69">
+        <v>4.8899755501222494E-3</v>
+      </c>
+      <c r="L37" s="69">
+        <v>0</v>
+      </c>
+      <c r="M37" s="127">
+        <v>2.0304568527918783E-3</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S37" s="164">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="S37" s="163">
+        <v>1</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>115</v>
@@ -8553,55 +8560,56 @@
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="125">
-        <v>4.7475788191400081E-2</v>
-      </c>
-      <c r="D38" s="126">
-        <v>6.8909073384835762E-3</v>
-      </c>
-      <c r="E38" s="126">
-        <v>8.5385358157497159E-3</v>
-      </c>
-      <c r="F38" s="126">
-        <v>1.323660840101327E-2</v>
-      </c>
-      <c r="G38" s="126">
-        <v>1.6831092756249069E-2</v>
-      </c>
-      <c r="H38" s="126">
-        <v>3.3300984813132671E-2</v>
-      </c>
-      <c r="I38" s="126">
+        <v>9</v>
+      </c>
+      <c r="C38" s="122">
+        <f t="array" ref="C38:H39">C16:H17/C24:H24</f>
+        <v>0.1186894704785002</v>
+      </c>
+      <c r="D38" s="123">
+        <v>0.1950126776790852</v>
+      </c>
+      <c r="E38" s="123">
+        <v>7.2577554433872579E-2</v>
+      </c>
+      <c r="F38" s="123">
+        <v>6.3976940604897475E-2</v>
+      </c>
+      <c r="G38" s="123">
+        <v>3.0691992673160064E-2</v>
+      </c>
+      <c r="H38" s="123">
+        <v>2.9138361711491086E-2</v>
+      </c>
+      <c r="I38" s="123">
+        <f t="array" aca="1" ref="I38:M39" ca="1">I16:M17/I44:M44</f>
+        <v>7.4843887643742661</v>
+      </c>
+      <c r="J38" s="123">
         <f ca="1"/>
-        <v>8.829239870472767</v>
-      </c>
-      <c r="J38" s="126">
+        <v>2.0507548628736156</v>
+      </c>
+      <c r="K38" s="123">
         <f ca="1"/>
-        <v>1.3671699085824103</v>
-      </c>
-      <c r="K38" s="126">
+        <v>6.0168391977391611</v>
+      </c>
+      <c r="L38" s="123">
         <f ca="1"/>
-        <v>3.3536480774283848</v>
-      </c>
-      <c r="L38" s="126">
+        <v>4.3706097000231967</v>
+      </c>
+      <c r="M38" s="128">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="129">
-        <f ca="1"/>
-        <v>0</v>
+        <v>13.349602788086203</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="S38" s="165">
-        <v>298</v>
+        <v>101</v>
+      </c>
+      <c r="S38" s="164">
+        <v>34</v>
       </c>
       <c r="T38" s="7" t="s">
         <v>115</v>
@@ -8619,39 +8627,59 @@
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="116">
-        <f t="array" ref="C39:H42">C18:H21/C23:H23</f>
-        <v>0.13209369489950321</v>
-      </c>
-      <c r="D39" s="69">
-        <v>0.2122238198543944</v>
-      </c>
-      <c r="E39" s="69">
-        <v>0.29350094609844335</v>
-      </c>
-      <c r="F39" s="69">
-        <v>0.32439212367145048</v>
-      </c>
-      <c r="G39" s="69">
-        <v>0.18890307554548788</v>
-      </c>
-      <c r="H39" s="69">
-        <v>0.5048673348174485</v>
-      </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="108"/>
+        <v>72</v>
+      </c>
+      <c r="C39" s="125">
+        <v>4.7475788191400081E-2</v>
+      </c>
+      <c r="D39" s="126">
+        <v>6.8909073384835762E-3</v>
+      </c>
+      <c r="E39" s="126">
+        <v>8.5385358157497159E-3</v>
+      </c>
+      <c r="F39" s="126">
+        <v>1.323660840101327E-2</v>
+      </c>
+      <c r="G39" s="126">
+        <v>1.6831092756249069E-2</v>
+      </c>
+      <c r="H39" s="126">
+        <v>3.3300984813132671E-2</v>
+      </c>
+      <c r="I39" s="126">
+        <f ca="1"/>
+        <v>8.829239870472767</v>
+      </c>
+      <c r="J39" s="126">
+        <f ca="1"/>
+        <v>1.3671699085824103</v>
+      </c>
+      <c r="K39" s="126">
+        <f ca="1"/>
+        <v>3.3536480774283848</v>
+      </c>
+      <c r="L39" s="126">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="129">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="R39" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="S39" s="165">
+        <v>298</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
@@ -8665,25 +8693,26 @@
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="116">
-        <v>-0.14242736457420024</v>
+        <f t="array" ref="C40:H43">C19:H22/C24:H24</f>
+        <v>0.13209369489950321</v>
       </c>
       <c r="D40" s="69">
-        <v>-1.3781814676967151E-3</v>
+        <v>0.2122238198543944</v>
       </c>
       <c r="E40" s="69">
-        <v>0</v>
+        <v>0.29350094609844335</v>
       </c>
       <c r="F40" s="69">
-        <v>-1.1030507000844392E-3</v>
+        <v>0.32439212367145048</v>
       </c>
       <c r="G40" s="69">
-        <v>4.9503213988967842E-3</v>
+        <v>0.18890307554548788</v>
       </c>
       <c r="H40" s="69">
-        <v>-9.7127872371636954E-3</v>
+        <v>0.5048673348174485</v>
       </c>
       <c r="I40" s="31"/>
       <c r="J40" s="31"/>
@@ -8694,9 +8723,13 @@
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="22" t="s">
-        <v>129</v>
-      </c>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -8706,25 +8739,25 @@
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="116">
-        <v>0.18990315276560032</v>
+        <v>-0.14242736457420024</v>
       </c>
       <c r="D41" s="69">
-        <v>5.4438167974020249E-2</v>
+        <v>-1.3781814676967151E-3</v>
       </c>
       <c r="E41" s="69">
-        <v>2.1346339539374291E-2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="69">
-        <v>6.6183042005066348E-2</v>
+        <v>-1.1030507000844392E-3</v>
       </c>
       <c r="G41" s="69">
-        <v>0.1584102847646971</v>
+        <v>4.9503213988967842E-3</v>
       </c>
       <c r="H41" s="69">
-        <v>8.7415085134473255E-2</v>
+        <v>-9.7127872371636954E-3</v>
       </c>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
@@ -8735,6 +8768,9 @@
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
+      <c r="R41" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
@@ -8742,26 +8778,27 @@
       <c r="AC41" s="7"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="116">
-        <v>0.16616525866990028</v>
+        <v>0.18990315276560032</v>
       </c>
       <c r="D42" s="69">
-        <v>4.1345444030901457E-2</v>
+        <v>5.4438167974020249E-2</v>
       </c>
       <c r="E42" s="69">
-        <v>0.10673169769687145</v>
+        <v>2.1346339539374291E-2</v>
       </c>
       <c r="F42" s="69">
-        <v>0.11140812070852836</v>
+        <v>6.6183042005066348E-2</v>
       </c>
       <c r="G42" s="69">
-        <v>0.24949619850439794</v>
+        <v>0.1584102847646971</v>
       </c>
       <c r="H42" s="69">
-        <v>0.10684065960880064</v>
+        <v>8.7415085134473255E-2</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
@@ -8769,22 +8806,9 @@
       <c r="L42" s="31"/>
       <c r="M42" s="108"/>
       <c r="N42" s="7"/>
-      <c r="S42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="T42" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="U42" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="W42" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="X42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
@@ -8792,150 +8816,173 @@
       <c r="AC42" s="7"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="124" t="s">
+      <c r="B43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="116">
+        <v>0.16616525866990028</v>
+      </c>
+      <c r="D43" s="69">
+        <v>4.1345444030901457E-2</v>
+      </c>
+      <c r="E43" s="69">
+        <v>0.10673169769687145</v>
+      </c>
+      <c r="F43" s="69">
+        <v>0.11140812070852836</v>
+      </c>
+      <c r="G43" s="69">
+        <v>0.24949619850439794</v>
+      </c>
+      <c r="H43" s="69">
+        <v>0.10684065960880064</v>
+      </c>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="7"/>
+      <c r="S43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B44" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="117">
-        <f>SUM(C31:C42)</f>
+      <c r="C44" s="117">
+        <f>SUM(C32:C43)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="D43" s="118">
-        <f>SUM(D31:D42)</f>
+      <c r="D44" s="118">
+        <f>SUM(D32:D43)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E43" s="118">
-        <f>SUM(E31:E42)</f>
+      <c r="E44" s="118">
+        <f>SUM(E32:E43)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F43" s="118">
-        <f>SUM(F31:F42)</f>
+      <c r="F44" s="118">
+        <f>SUM(F32:F43)</f>
         <v>1</v>
       </c>
-      <c r="G43" s="118">
-        <f>SUM(G31:G42)</f>
+      <c r="G44" s="118">
+        <f>SUM(G32:G43)</f>
         <v>1</v>
       </c>
-      <c r="H43" s="118">
-        <f>SUM(H31:H42)</f>
+      <c r="H44" s="118">
+        <f>SUM(H32:H43)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I43" s="118">
-        <f ca="1">SUM(I31:I42)</f>
+      <c r="I44" s="118">
+        <f ca="1">SUM(I32:I43)</f>
         <v>17.102264998483399</v>
       </c>
-      <c r="J43" s="118">
-        <f ca="1">SUM(J31:J42)</f>
+      <c r="J44" s="118">
+        <f ca="1">SUM(J32:J43)</f>
         <v>4.3886278964560255</v>
       </c>
-      <c r="K43" s="118">
-        <f ca="1">SUM(K31:K42)</f>
+      <c r="K44" s="118">
+        <f ca="1">SUM(K32:K43)</f>
         <v>10.13821343653674</v>
       </c>
-      <c r="L43" s="118">
-        <f ca="1">SUM(L31:L42)</f>
+      <c r="L44" s="118">
+        <f ca="1">SUM(L32:L43)</f>
         <v>7.092831922245419</v>
       </c>
-      <c r="M43" s="130">
-        <f ca="1">SUM(M31:M42)</f>
+      <c r="M44" s="130">
+        <f ca="1">SUM(M32:M43)</f>
         <v>14.15772461549737</v>
       </c>
-      <c r="N43" s="7"/>
-      <c r="R43" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="168">
-        <f t="array" ref="S43:W48">TRANSPOSE($S$25:$X$25)*I8:M13/1000</f>
-        <v>22.554565535999231</v>
-      </c>
-      <c r="T43" s="156">
-        <v>0</v>
-      </c>
-      <c r="U43" s="156">
-        <v>0</v>
-      </c>
-      <c r="V43" s="156">
-        <v>7.5181885119997443</v>
-      </c>
-      <c r="W43" s="169">
-        <v>12.530314186666239</v>
-      </c>
-      <c r="X43" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="N44" s="7"/>
       <c r="R44" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="S44" s="162">
-        <v>162.77730341983982</v>
-      </c>
-      <c r="T44" s="158">
-        <v>4.5577644957555146</v>
-      </c>
-      <c r="U44" s="158">
-        <v>61.855375299539133</v>
-      </c>
-      <c r="V44" s="158">
-        <v>-37.764334393402841</v>
-      </c>
-      <c r="W44" s="170">
-        <v>397.82772955808855</v>
+        <v>4</v>
+      </c>
+      <c r="S44" s="168">
+        <f t="array" ref="S44:W49">TRANSPOSE($S$26:$X$26)*I9:M14/1000</f>
+        <v>22.554565535999231</v>
+      </c>
+      <c r="T44" s="156">
+        <v>0</v>
+      </c>
+      <c r="U44" s="156">
+        <v>0</v>
+      </c>
+      <c r="V44" s="156">
+        <v>7.5181885119997443</v>
+      </c>
+      <c r="W44" s="169">
+        <v>12.530314186666239</v>
       </c>
       <c r="X44" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B45" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="N45" s="7"/>
       <c r="R45" s="24" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="S45" s="162">
-        <v>1.0473535603944033</v>
+        <v>162.77730341983982</v>
       </c>
       <c r="T45" s="158">
-        <v>0</v>
+        <v>4.5577644957555146</v>
       </c>
       <c r="U45" s="158">
-        <v>32.049018948068735</v>
+        <v>61.855375299539133</v>
       </c>
       <c r="V45" s="158">
-        <v>0</v>
+        <v>-37.764334393402841</v>
       </c>
       <c r="W45" s="170">
-        <v>0.20947071207888063</v>
+        <v>397.82772955808855</v>
       </c>
       <c r="X45" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
-        <v>84</v>
+      <c r="B46" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="N46" s="7"/>
       <c r="R46" s="24" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="S46" s="162">
-        <v>55.995337161555589</v>
+        <v>1.0473535603944033</v>
       </c>
       <c r="T46" s="158">
-        <v>2.6496216322502648</v>
+        <v>0</v>
       </c>
       <c r="U46" s="158">
-        <v>6.8890162438506879</v>
+        <v>32.049018948068735</v>
       </c>
       <c r="V46" s="158">
-        <v>1.0598486529001059</v>
+        <v>0</v>
       </c>
       <c r="W46" s="170">
-        <v>19.607200078651957</v>
+        <v>0.20947071207888063</v>
       </c>
       <c r="X46" s="7" t="s">
         <v>116</v>
@@ -8943,474 +8990,458 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N47" s="7"/>
       <c r="R47" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S47" s="162">
-        <v>13.904111274058318</v>
+        <v>55.995337161555589</v>
       </c>
       <c r="T47" s="158">
-        <v>0.13326624224337047</v>
+        <v>2.6496216322502648</v>
       </c>
       <c r="U47" s="158">
-        <v>1.1105520186947537</v>
+        <v>6.8890162438506879</v>
       </c>
       <c r="V47" s="158">
-        <v>0</v>
+        <v>1.0598486529001059</v>
       </c>
       <c r="W47" s="170">
-        <v>2.9318573293541506</v>
+        <v>19.607200078651957</v>
       </c>
       <c r="X47" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C48" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
+      <c r="B48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" s="7"/>
       <c r="R48" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S48" s="162">
-        <v>12.63591179889117</v>
+        <v>13.904111274058318</v>
       </c>
       <c r="T48" s="158">
-        <v>40.572451490317221</v>
+        <v>0.13326624224337047</v>
       </c>
       <c r="U48" s="158">
-        <v>0.17191716733185267</v>
+        <v>1.1105520186947537</v>
       </c>
       <c r="V48" s="158">
         <v>0</v>
       </c>
       <c r="W48" s="170">
-        <v>0.17191716733185267</v>
+        <v>2.9318573293541506</v>
       </c>
       <c r="X48" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B49" s="7"/>
-      <c r="C49" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" s="105" t="s">
-        <v>61</v>
-      </c>
+      <c r="C49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J49" s="6"/>
-      <c r="K49" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="L49" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" s="105" t="s">
-        <v>15</v>
-      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
       <c r="R49" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S49" s="162">
-        <f>Y32/1000</f>
-        <v>226.14599999999999</v>
-      </c>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="171"/>
+        <v>12.63591179889117</v>
+      </c>
+      <c r="T49" s="158">
+        <v>40.572451490317221</v>
+      </c>
+      <c r="U49" s="158">
+        <v>0.17191716733185267</v>
+      </c>
+      <c r="V49" s="158">
+        <v>0</v>
+      </c>
+      <c r="W49" s="170">
+        <v>0.17191716733185267</v>
+      </c>
       <c r="X49" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="7" t="s">
+      <c r="C50" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="K50" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="R50" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S50" s="162">
+        <f>Y33/1000</f>
+        <v>226.14599999999999</v>
+      </c>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="171"/>
+      <c r="X50" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="7"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="124" t="s">
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="R50" s="172" t="s">
+      <c r="R51" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="S50" s="173">
-        <f t="array" ref="S50:W50">AN19:AR19/1000</f>
+      <c r="S51" s="173">
+        <f t="array" ref="S51:W51">AN20:AR20/1000</f>
         <v>62.811765105031157</v>
       </c>
-      <c r="T50" s="174">
+      <c r="T51" s="174">
         <v>3.6564918784321092</v>
       </c>
-      <c r="U50" s="174">
+      <c r="U51" s="174">
         <v>24.595132715766137</v>
       </c>
-      <c r="V50" s="174">
+      <c r="V51" s="174">
         <v>0.12300732300701293</v>
       </c>
-      <c r="W50" s="175">
+      <c r="W51" s="175">
         <v>114.2125605795206</v>
       </c>
-      <c r="X50" s="172" t="s">
+      <c r="X51" s="172" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B51" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="114">
-        <f t="array" ref="C51:M56">C8:M13/N8:N13</f>
-        <v>7.0611651199578032E-2</v>
-      </c>
-      <c r="D51" s="80">
-        <v>0.50473271677735065</v>
-      </c>
-      <c r="E51" s="80">
-        <v>0</v>
-      </c>
-      <c r="F51" s="80">
-        <v>0</v>
-      </c>
-      <c r="G51" s="80">
-        <v>0</v>
-      </c>
-      <c r="H51" s="80">
-        <v>2.3668668257457833E-2</v>
-      </c>
-      <c r="I51" s="80">
-        <v>0.21228721611120707</v>
-      </c>
-      <c r="J51" s="80">
-        <v>0</v>
-      </c>
-      <c r="K51" s="80">
-        <v>0</v>
-      </c>
-      <c r="L51" s="80">
-        <v>7.0762405370402362E-2</v>
-      </c>
-      <c r="M51" s="80">
-        <v>0.11793734228400393</v>
-      </c>
-      <c r="N51" s="131">
-        <f>SUM(C51:M51)</f>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="R51" s="7"/>
-      <c r="S51" s="140">
-        <f>SUM(S43:S49)</f>
-        <v>495.0605827507386</v>
-      </c>
-      <c r="T51" s="140">
-        <f>SUM(T43:T49)</f>
-        <v>47.913103860566373</v>
-      </c>
-      <c r="U51" s="140">
-        <f>SUM(U43:U49)</f>
-        <v>102.07587967748516</v>
-      </c>
-      <c r="V51" s="140">
-        <f>SUM(V43:V49)</f>
-        <v>-29.18629722850299</v>
-      </c>
-      <c r="W51" s="140">
-        <f>SUM(W43:W49)</f>
-        <v>433.27848903217165</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="115">
-        <v>4.6818128287887516E-3</v>
-      </c>
-      <c r="D52" s="69">
-        <v>0.27135733931433043</v>
-      </c>
-      <c r="E52" s="69">
-        <v>3.3356126969136694E-2</v>
-      </c>
-      <c r="F52" s="69">
-        <v>3.8716759560891878E-2</v>
-      </c>
-      <c r="G52" s="69">
-        <v>7.5807116351385099E-3</v>
-      </c>
-      <c r="H52" s="69">
-        <v>2.061856361401147E-2</v>
-      </c>
-      <c r="I52" s="69">
-        <v>0.17228969228665808</v>
-      </c>
-      <c r="J52" s="69">
-        <v>4.824111384026426E-3</v>
-      </c>
-      <c r="K52" s="69">
-        <v>6.5470083068930068E-2</v>
-      </c>
-      <c r="L52" s="69">
-        <v>-3.9971208610504676E-2</v>
-      </c>
-      <c r="M52" s="69">
-        <v>0.42107600794859235</v>
-      </c>
-      <c r="N52" s="132">
-        <f t="shared" ref="N52:N62" si="15">SUM(C52:M52)</f>
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C52" s="114">
+        <f t="array" ref="C52:M57">C9:M14/N9:N14</f>
+        <v>7.0611651199578032E-2</v>
+      </c>
+      <c r="D52" s="80">
+        <v>0.50473271677735065</v>
+      </c>
+      <c r="E52" s="80">
+        <v>0</v>
+      </c>
+      <c r="F52" s="80">
+        <v>0</v>
+      </c>
+      <c r="G52" s="80">
+        <v>0</v>
+      </c>
+      <c r="H52" s="80">
+        <v>2.3668668257457833E-2</v>
+      </c>
+      <c r="I52" s="80">
+        <v>0.21228721611120707</v>
+      </c>
+      <c r="J52" s="80">
+        <v>0</v>
+      </c>
+      <c r="K52" s="80">
+        <v>0</v>
+      </c>
+      <c r="L52" s="80">
+        <v>7.0762405370402362E-2</v>
+      </c>
+      <c r="M52" s="80">
+        <v>0.11793734228400393</v>
+      </c>
+      <c r="N52" s="131">
+        <f>SUM(C52:M52)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="140">
+        <f>SUM(S44:S50)</f>
+        <v>495.0605827507386</v>
+      </c>
+      <c r="T52" s="140">
+        <f>SUM(T44:T50)</f>
+        <v>47.913103860566373</v>
+      </c>
+      <c r="U52" s="140">
+        <f>SUM(U44:U50)</f>
+        <v>102.07587967748516</v>
+      </c>
+      <c r="V52" s="140">
+        <f>SUM(V44:V50)</f>
+        <v>-29.18629722850299</v>
+      </c>
+      <c r="W52" s="140">
+        <f>SUM(W44:W50)</f>
+        <v>433.27848903217165</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="115">
+        <v>4.6818128287887516E-3</v>
+      </c>
+      <c r="D53" s="69">
+        <v>0.27135733931433043</v>
+      </c>
+      <c r="E53" s="69">
+        <v>3.3356126969136694E-2</v>
+      </c>
+      <c r="F53" s="69">
+        <v>3.8716759560891878E-2</v>
+      </c>
+      <c r="G53" s="69">
+        <v>7.5807116351385099E-3</v>
+      </c>
+      <c r="H53" s="69">
+        <v>2.061856361401147E-2</v>
+      </c>
+      <c r="I53" s="69">
+        <v>0.17228969228665808</v>
+      </c>
+      <c r="J53" s="69">
+        <v>4.824111384026426E-3</v>
+      </c>
+      <c r="K53" s="69">
+        <v>6.5470083068930068E-2</v>
+      </c>
+      <c r="L53" s="69">
+        <v>-3.9971208610504676E-2</v>
+      </c>
+      <c r="M53" s="69">
+        <v>0.42107600794859235</v>
+      </c>
+      <c r="N53" s="132">
+        <f t="shared" ref="N53:N63" si="15">SUM(C53:M53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="115">
+      <c r="C54" s="115">
         <v>4.2473816165586424E-3</v>
       </c>
-      <c r="D53" s="69">
+      <c r="D54" s="69">
         <v>4.6674157731113559E-2</v>
       </c>
-      <c r="E53" s="69">
+      <c r="E54" s="69">
         <v>7.6337682162178844E-2</v>
       </c>
-      <c r="F53" s="69">
+      <c r="F54" s="69">
         <v>3.4014283491623491E-2</v>
       </c>
-      <c r="G53" s="69">
+      <c r="G54" s="69">
         <v>0.11774673182300777</v>
       </c>
-      <c r="H53" s="69">
+      <c r="H54" s="69">
         <v>4.2415195603099122E-2</v>
       </c>
-      <c r="I53" s="69">
+      <c r="I54" s="69">
         <v>2.1338508414226999E-2</v>
       </c>
-      <c r="J53" s="69">
-        <v>0</v>
-      </c>
-      <c r="K53" s="69">
+      <c r="J54" s="69">
+        <v>0</v>
+      </c>
+      <c r="K54" s="69">
         <v>0.65295835747534614</v>
       </c>
-      <c r="L53" s="69">
-        <v>0</v>
-      </c>
-      <c r="M53" s="69">
+      <c r="L54" s="69">
+        <v>0</v>
+      </c>
+      <c r="M54" s="69">
         <v>4.2677016828453996E-3</v>
       </c>
-      <c r="N53" s="132">
+      <c r="N54" s="132">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B54" s="24" t="s">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="115">
+      <c r="C55" s="115">
         <v>4.3380682426148428E-3</v>
       </c>
-      <c r="D54" s="69">
+      <c r="D55" s="69">
         <v>0.15241719728654382</v>
       </c>
-      <c r="E54" s="69">
+      <c r="E55" s="69">
         <v>1.8799648789825957E-2</v>
       </c>
-      <c r="F54" s="69">
+      <c r="F55" s="69">
         <v>0.20024841329064319</v>
       </c>
-      <c r="G54" s="69">
+      <c r="G55" s="69">
         <v>4.185879369643155E-2</v>
       </c>
-      <c r="H54" s="69">
+      <c r="H55" s="69">
         <v>4.3898880458939984E-2</v>
       </c>
-      <c r="I54" s="69">
+      <c r="I55" s="69">
         <v>0.34976467713216225</v>
       </c>
-      <c r="J54" s="69">
+      <c r="J55" s="69">
         <v>1.6550379044108623E-2</v>
       </c>
-      <c r="K54" s="69">
+      <c r="K55" s="69">
         <v>4.3030985514682422E-2</v>
       </c>
-      <c r="L54" s="69">
+      <c r="L55" s="69">
         <v>6.6201516176434497E-3</v>
       </c>
-      <c r="M54" s="69">
+      <c r="M55" s="69">
         <v>0.12247280492640382</v>
       </c>
-      <c r="N54" s="132">
+      <c r="N55" s="132">
         <f t="shared" si="15"/>
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B55" s="24" t="s">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="115">
+      <c r="C56" s="115">
         <v>5.7896981317410307E-3</v>
       </c>
-      <c r="D55" s="69">
+      <c r="D56" s="69">
         <v>0.1295862548339391</v>
       </c>
-      <c r="E55" s="69">
+      <c r="E56" s="69">
         <v>2.9852908802002063E-2</v>
       </c>
-      <c r="F55" s="69">
+      <c r="F56" s="69">
         <v>0.123556090139037</v>
       </c>
-      <c r="G55" s="69">
+      <c r="G56" s="69">
         <v>0.25802659217237767</v>
       </c>
-      <c r="H55" s="69">
+      <c r="H56" s="69">
         <v>5.0246071082609471E-2</v>
       </c>
-      <c r="I55" s="69">
+      <c r="I56" s="69">
         <v>0.30987952445795058</v>
       </c>
-      <c r="J55" s="69">
+      <c r="J56" s="69">
         <v>2.9700912887343509E-3</v>
       </c>
-      <c r="K55" s="69">
+      <c r="K56" s="69">
         <v>2.4750760739452923E-2</v>
       </c>
-      <c r="L55" s="69">
-        <v>0</v>
-      </c>
-      <c r="M55" s="69">
+      <c r="L56" s="69">
+        <v>0</v>
+      </c>
+      <c r="M56" s="69">
         <v>6.5342008352155714E-2</v>
       </c>
-      <c r="N55" s="132">
+      <c r="N56" s="132">
         <f t="shared" si="15"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R55" s="176" t="s">
+      <c r="R56" s="176" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B56" s="24" t="s">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B57" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="115">
-        <v>0</v>
-      </c>
-      <c r="D56" s="69">
+      <c r="C57" s="115">
+        <v>0</v>
+      </c>
+      <c r="D57" s="69">
         <v>2.5107162862869251E-2</v>
       </c>
-      <c r="E56" s="69">
+      <c r="E57" s="69">
         <v>4.1685976379032689E-3</v>
       </c>
-      <c r="F56" s="69">
+      <c r="F57" s="69">
         <v>1.6720776456861951E-2</v>
       </c>
-      <c r="G56" s="69">
+      <c r="G57" s="69">
         <v>2.3705490773465177E-2</v>
       </c>
-      <c r="H56" s="69">
+      <c r="H57" s="69">
         <v>6.5830814280219974E-2</v>
       </c>
-      <c r="I56" s="69">
+      <c r="I57" s="69">
         <v>0.20397539682878973</v>
       </c>
-      <c r="J56" s="69">
+      <c r="J57" s="69">
         <v>0.6549414102257739</v>
       </c>
-      <c r="K56" s="69">
+      <c r="K57" s="69">
         <v>2.7751754670583637E-3</v>
       </c>
-      <c r="L56" s="69">
-        <v>0</v>
-      </c>
-      <c r="M56" s="69">
+      <c r="L57" s="69">
+        <v>0</v>
+      </c>
+      <c r="M57" s="69">
         <v>2.7751754670583637E-3</v>
-      </c>
-      <c r="N56" s="132">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="122">
-        <f t="array" ref="C57:M58">C15:M16/N15:N16</f>
-        <v>6.0024009603841539E-3</v>
-      </c>
-      <c r="D57" s="123">
-        <v>0.3397358943577431</v>
-      </c>
-      <c r="E57" s="123">
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="F57" s="123">
-        <v>6.9627851140456179E-2</v>
-      </c>
-      <c r="G57" s="123">
-        <v>3.721488595438175E-2</v>
-      </c>
-      <c r="H57" s="123">
-        <v>2.5210084033613446E-2</v>
-      </c>
-      <c r="I57" s="123">
-        <v>0.15366146458583432</v>
-      </c>
-      <c r="J57" s="123">
-        <v>1.0804321728691477E-2</v>
-      </c>
-      <c r="K57" s="123">
-        <v>7.322929171668667E-2</v>
-      </c>
-      <c r="L57" s="123">
-        <v>3.721488595438175E-2</v>
-      </c>
-      <c r="M57" s="123">
-        <v>0.22689075630252101</v>
       </c>
       <c r="N57" s="132">
         <f t="shared" si="15"/>
@@ -9419,40 +9450,41 @@
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="125">
-        <v>7.7519379844961239E-3</v>
-      </c>
-      <c r="D58" s="126">
-        <v>3.875968992248062E-2</v>
-      </c>
-      <c r="E58" s="126">
-        <v>7.7519379844961239E-3</v>
-      </c>
-      <c r="F58" s="126">
-        <v>4.6511627906976744E-2</v>
-      </c>
-      <c r="G58" s="126">
-        <v>6.589147286821706E-2</v>
-      </c>
-      <c r="H58" s="126">
-        <v>9.3023255813953487E-2</v>
-      </c>
-      <c r="I58" s="126">
-        <v>0.5852713178294574</v>
-      </c>
-      <c r="J58" s="126">
-        <v>2.3255813953488372E-2</v>
-      </c>
-      <c r="K58" s="126">
-        <v>0.13178294573643412</v>
-      </c>
-      <c r="L58" s="126">
-        <v>0</v>
-      </c>
-      <c r="M58" s="126">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="C58" s="122">
+        <f t="array" ref="C58:M59">C16:M17/N16:N17</f>
+        <v>6.0024009603841539E-3</v>
+      </c>
+      <c r="D58" s="123">
+        <v>0.3397358943577431</v>
+      </c>
+      <c r="E58" s="123">
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="F58" s="123">
+        <v>6.9627851140456179E-2</v>
+      </c>
+      <c r="G58" s="123">
+        <v>3.721488595438175E-2</v>
+      </c>
+      <c r="H58" s="123">
+        <v>2.5210084033613446E-2</v>
+      </c>
+      <c r="I58" s="123">
+        <v>0.15366146458583432</v>
+      </c>
+      <c r="J58" s="123">
+        <v>1.0804321728691477E-2</v>
+      </c>
+      <c r="K58" s="123">
+        <v>7.322929171668667E-2</v>
+      </c>
+      <c r="L58" s="123">
+        <v>3.721488595438175E-2</v>
+      </c>
+      <c r="M58" s="123">
+        <v>0.22689075630252101</v>
       </c>
       <c r="N58" s="132">
         <f t="shared" si="15"/>
@@ -9461,32 +9493,41 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="116">
-        <f t="array" ref="C59:H62">C18:H21/N18:N21</f>
-        <v>4.5203367079953635E-3</v>
-      </c>
-      <c r="D59" s="69">
-        <v>0.25017770387067567</v>
-      </c>
-      <c r="E59" s="69">
-        <v>5.5845345456837218E-2</v>
-      </c>
-      <c r="F59" s="69">
-        <v>0.23889425803324282</v>
-      </c>
-      <c r="G59" s="69">
-        <v>0.15499101479952185</v>
-      </c>
-      <c r="H59" s="69">
-        <v>0.29557134113172717</v>
-      </c>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="C59" s="125">
+        <v>7.7519379844961239E-3</v>
+      </c>
+      <c r="D59" s="126">
+        <v>3.875968992248062E-2</v>
+      </c>
+      <c r="E59" s="126">
+        <v>7.7519379844961239E-3</v>
+      </c>
+      <c r="F59" s="126">
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="G59" s="126">
+        <v>6.589147286821706E-2</v>
+      </c>
+      <c r="H59" s="126">
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="I59" s="126">
+        <v>0.5852713178294574</v>
+      </c>
+      <c r="J59" s="126">
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="K59" s="126">
+        <v>0.13178294573643412</v>
+      </c>
+      <c r="L59" s="126">
+        <v>0</v>
+      </c>
+      <c r="M59" s="126">
+        <v>0</v>
+      </c>
       <c r="N59" s="132">
         <f t="shared" si="15"/>
         <v>1</v>
@@ -9494,25 +9535,26 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="116">
-        <v>0.54545454545454541</v>
+        <f t="array" ref="C60:H63">C19:H22/N19:N22</f>
+        <v>4.5203367079953635E-3</v>
       </c>
       <c r="D60" s="69">
-        <v>0.18181818181818182</v>
+        <v>0.25017770387067567</v>
       </c>
       <c r="E60" s="69">
-        <v>0</v>
+        <v>5.5845345456837218E-2</v>
       </c>
       <c r="F60" s="69">
-        <v>9.0909090909090912E-2</v>
+        <v>0.23889425803324282</v>
       </c>
       <c r="G60" s="69">
-        <v>-0.45454545454545453</v>
+        <v>0.15499101479952185</v>
       </c>
       <c r="H60" s="69">
-        <v>0.63636363636363635</v>
+        <v>0.29557134113172717</v>
       </c>
       <c r="I60" s="31"/>
       <c r="J60" s="31"/>
@@ -9526,25 +9568,25 @@
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="116">
-        <v>2.1333333333333333E-2</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="D61" s="69">
-        <v>0.21066666666666667</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E61" s="69">
-        <v>1.3333333333333334E-2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="69">
-        <v>0.16</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G61" s="69">
-        <v>0.42666666666666669</v>
+        <v>-0.45454545454545453</v>
       </c>
       <c r="H61" s="69">
-        <v>0.16800000000000001</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="I61" s="31"/>
       <c r="J61" s="31"/>
@@ -9558,210 +9600,201 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="82">
-        <v>1.3409961685823755E-2</v>
-      </c>
-      <c r="D62" s="83">
-        <v>0.11494252873563218</v>
-      </c>
-      <c r="E62" s="83">
-        <v>4.7892720306513412E-2</v>
-      </c>
-      <c r="F62" s="83">
-        <v>0.19348659003831417</v>
-      </c>
-      <c r="G62" s="83">
-        <v>0.48275862068965519</v>
-      </c>
-      <c r="H62" s="83">
-        <v>0.1475095785440613</v>
-      </c>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="133">
+        <v>77</v>
+      </c>
+      <c r="C62" s="116">
+        <v>2.1333333333333333E-2</v>
+      </c>
+      <c r="D62" s="69">
+        <v>0.21066666666666667</v>
+      </c>
+      <c r="E62" s="69">
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F62" s="69">
+        <v>0.16</v>
+      </c>
+      <c r="G62" s="69">
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="H62" s="69">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="132">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B64" s="22" t="s">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B63" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="82">
+        <v>1.3409961685823755E-2</v>
+      </c>
+      <c r="D63" s="83">
+        <v>0.11494252873563218</v>
+      </c>
+      <c r="E63" s="83">
+        <v>4.7892720306513412E-2</v>
+      </c>
+      <c r="F63" s="83">
+        <v>0.19348659003831417</v>
+      </c>
+      <c r="G63" s="83">
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="H63" s="83">
+        <v>0.1475095785440613</v>
+      </c>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="133">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B65" s="22" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="135" t="s">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B68" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="7"/>
-      <c r="C68" s="105" t="s">
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B69" s="7"/>
+      <c r="C69" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="105" t="s">
+      <c r="D69" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="105" t="s">
+      <c r="E69" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="105" t="s">
+      <c r="F69" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="105" t="s">
+      <c r="G69" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="105" t="s">
+      <c r="H69" s="105" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="7"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="Q69" s="22" t="s">
+    <row r="70" spans="2:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="7"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="Q70" s="22" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="79">
-        <f t="array" ref="C70:H75">Q70:V75-C31:H36</f>
-        <v>0.92893803329645508</v>
-      </c>
-      <c r="D70" s="80">
-        <v>-1.4745399186791472E-2</v>
-      </c>
-      <c r="E70" s="80">
-        <v>0</v>
-      </c>
-      <c r="F70" s="80">
-        <v>0</v>
-      </c>
-      <c r="G70" s="80">
-        <v>0</v>
-      </c>
-      <c r="H70" s="81">
-        <v>-1.3923176403892305E-3</v>
-      </c>
-      <c r="Q70" s="73">
-        <v>1</v>
-      </c>
-      <c r="R70" s="74">
-        <v>0</v>
-      </c>
-      <c r="S70" s="74">
-        <v>0</v>
-      </c>
-      <c r="T70" s="74">
-        <v>0</v>
-      </c>
-      <c r="U70" s="74">
-        <v>0</v>
-      </c>
-      <c r="V70" s="75">
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="116">
-        <v>-0.16126382204102915</v>
-      </c>
-      <c r="D71" s="69">
-        <v>0.72866944969038927</v>
-      </c>
-      <c r="E71" s="69">
-        <v>-0.20663778620516193</v>
-      </c>
-      <c r="F71" s="69">
-        <v>-6.1969100083461341E-2</v>
-      </c>
-      <c r="G71" s="69">
-        <v>-1.0890657046346714E-2</v>
-      </c>
-      <c r="H71" s="127">
-        <v>-4.1513079938811238E-2</v>
-      </c>
-      <c r="Q71" s="110">
-        <v>0</v>
-      </c>
-      <c r="R71" s="31">
+        <v>4</v>
+      </c>
+      <c r="C71" s="79">
+        <f t="array" ref="C71:H76">Q71:V76-C32:H37</f>
+        <v>0.92893803329645508</v>
+      </c>
+      <c r="D71" s="80">
+        <v>-1.4745399186791472E-2</v>
+      </c>
+      <c r="E71" s="80">
+        <v>0</v>
+      </c>
+      <c r="F71" s="80">
+        <v>0</v>
+      </c>
+      <c r="G71" s="80">
+        <v>0</v>
+      </c>
+      <c r="H71" s="81">
+        <v>-1.3923176403892305E-3</v>
+      </c>
+      <c r="Q71" s="73">
         <v>1</v>
       </c>
-      <c r="S71" s="31">
-        <v>0</v>
-      </c>
-      <c r="T71" s="31">
-        <v>0</v>
-      </c>
-      <c r="U71" s="31">
-        <v>0</v>
-      </c>
-      <c r="V71" s="108">
+      <c r="R71" s="74">
+        <v>0</v>
+      </c>
+      <c r="S71" s="74">
+        <v>0</v>
+      </c>
+      <c r="T71" s="74">
+        <v>0</v>
+      </c>
+      <c r="U71" s="74">
+        <v>0</v>
+      </c>
+      <c r="V71" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="116">
-        <v>-2.3624869424019836E-2</v>
+        <v>-0.16126382204102915</v>
       </c>
       <c r="D72" s="69">
-        <v>-7.5363115777209661E-3</v>
+        <v>0.72866944969038927</v>
       </c>
       <c r="E72" s="69">
-        <v>0.92363430229283261</v>
+        <v>-0.20663778620516193</v>
       </c>
       <c r="F72" s="69">
-        <v>-8.7914952840121106E-3</v>
+        <v>-6.1969100083461341E-2</v>
       </c>
       <c r="G72" s="69">
-        <v>-2.7316068905967706E-2</v>
+        <v>-1.0890657046346714E-2</v>
       </c>
       <c r="H72" s="127">
-        <v>-1.3790285435351728E-2</v>
+        <v>-4.1513079938811238E-2</v>
       </c>
       <c r="Q72" s="110">
         <v>0</v>
       </c>
       <c r="R72" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="31">
         <v>0</v>
@@ -9775,25 +9808,25 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73" s="116">
-        <v>-9.3330132423553411E-2</v>
+        <v>-2.3624869424019836E-2</v>
       </c>
       <c r="D73" s="69">
-        <v>-9.5190519246761224E-2</v>
+        <v>-7.5363115777209661E-3</v>
       </c>
       <c r="E73" s="69">
-        <v>-7.2742204614001701E-2</v>
+        <v>0.92363430229283261</v>
       </c>
       <c r="F73" s="69">
-        <v>0.7998074679597722</v>
+        <v>-8.7914952840121106E-3</v>
       </c>
       <c r="G73" s="69">
-        <v>-3.7560677302048671E-2</v>
+        <v>-2.7316068905967706E-2</v>
       </c>
       <c r="H73" s="127">
-        <v>-5.520553138015083E-2</v>
+        <v>-1.3790285435351728E-2</v>
       </c>
       <c r="Q73" s="110">
         <v>0</v>
@@ -9802,10 +9835,10 @@
         <v>0</v>
       </c>
       <c r="S73" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="31">
         <v>0</v>
@@ -9816,25 +9849,25 @@
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="116">
-        <v>-0.13881920897714875</v>
+        <v>-9.3330132423553411E-2</v>
       </c>
       <c r="D74" s="69">
-        <v>-9.0195901835291553E-2</v>
+        <v>-9.5190519246761224E-2</v>
       </c>
       <c r="E74" s="69">
-        <v>-0.12873348302982238</v>
+        <v>-7.2742204614001701E-2</v>
       </c>
       <c r="F74" s="69">
-        <v>-0.13766105329271314</v>
+        <v>0.7998074679597722</v>
       </c>
       <c r="G74" s="69">
-        <v>0.74196458562195133</v>
+        <v>-3.7560677302048671E-2</v>
       </c>
       <c r="H74" s="127">
-        <v>-7.0420548031142519E-2</v>
+        <v>-5.520553138015083E-2</v>
       </c>
       <c r="Q74" s="110">
         <v>0</v>
@@ -9846,10 +9879,10 @@
         <v>0</v>
       </c>
       <c r="T74" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" s="108">
         <v>0</v>
@@ -9857,446 +9890,490 @@
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="116">
+        <v>-0.13881920897714875</v>
+      </c>
+      <c r="D75" s="69">
+        <v>-9.0195901835291553E-2</v>
+      </c>
+      <c r="E75" s="69">
+        <v>-0.12873348302982238</v>
+      </c>
+      <c r="F75" s="69">
+        <v>-0.13766105329271314</v>
+      </c>
+      <c r="G75" s="69">
+        <v>0.74196458562195133</v>
+      </c>
+      <c r="H75" s="127">
+        <v>-7.0420548031142519E-2</v>
+      </c>
+      <c r="Q75" s="110">
+        <v>0</v>
+      </c>
+      <c r="R75" s="31">
+        <v>0</v>
+      </c>
+      <c r="S75" s="31">
+        <v>0</v>
+      </c>
+      <c r="T75" s="31">
+        <v>0</v>
+      </c>
+      <c r="U75" s="31">
+        <v>1</v>
+      </c>
+      <c r="V75" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B76" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C75" s="82">
-        <v>0</v>
-      </c>
-      <c r="D75" s="83">
+      <c r="C76" s="82">
+        <v>0</v>
+      </c>
+      <c r="D76" s="83">
         <v>-1.246848243463587E-2</v>
       </c>
-      <c r="E75" s="83">
+      <c r="E76" s="83">
         <v>-1.2825754859535217E-2</v>
       </c>
-      <c r="F75" s="83">
+      <c r="F76" s="83">
         <v>-1.3292034608714056E-2</v>
       </c>
-      <c r="G75" s="83">
+      <c r="G76" s="83">
         <v>-1.6914216724699376E-2</v>
       </c>
-      <c r="H75" s="84">
+      <c r="H76" s="84">
         <v>0.93417140127402809</v>
       </c>
-      <c r="Q75" s="76">
-        <v>0</v>
-      </c>
-      <c r="R75" s="77">
-        <v>0</v>
-      </c>
-      <c r="S75" s="77">
-        <v>0</v>
-      </c>
-      <c r="T75" s="77">
-        <v>0</v>
-      </c>
-      <c r="U75" s="77">
-        <v>0</v>
-      </c>
-      <c r="V75" s="78">
+      <c r="Q76" s="76">
+        <v>0</v>
+      </c>
+      <c r="R76" s="77">
+        <v>0</v>
+      </c>
+      <c r="S76" s="77">
+        <v>0</v>
+      </c>
+      <c r="T76" s="77">
+        <v>0</v>
+      </c>
+      <c r="U76" s="77">
+        <v>0</v>
+      </c>
+      <c r="V76" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B77" s="22" t="s">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B78" s="22" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B78" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B80" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="135" t="s">
+    <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="7"/>
-      <c r="C81" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="H81" s="105" t="s">
-        <v>61</v>
-      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="7"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
+      <c r="C82" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="E82" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82" s="105" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="79">
-        <f t="array" ref="C83:H88">MINVERSE(C70:H75)</f>
-        <v>1.0808048027409312</v>
-      </c>
-      <c r="D83" s="80">
-        <v>2.2314498939412838E-2</v>
-      </c>
-      <c r="E83" s="80">
-        <v>5.2811274154853111E-3</v>
-      </c>
-      <c r="F83" s="80">
-        <v>1.9523240013988577E-3</v>
-      </c>
-      <c r="G83" s="80">
-        <v>6.8571091232946921E-4</v>
-      </c>
-      <c r="H83" s="81">
-        <v>2.8475102577030101E-3</v>
-      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="116">
-        <v>0.27021819013035653</v>
-      </c>
-      <c r="D84" s="69">
-        <v>1.4033712428121814</v>
-      </c>
-      <c r="E84" s="69">
-        <v>0.33021262335825319</v>
-      </c>
-      <c r="F84" s="69">
-        <v>0.12065099520393904</v>
-      </c>
-      <c r="G84" s="69">
-        <v>4.0638037886883249E-2</v>
-      </c>
-      <c r="H84" s="127">
-        <v>7.7834296331004305E-2</v>
+        <v>4</v>
+      </c>
+      <c r="C84" s="79">
+        <f t="array" ref="C84:H89">MINVERSE(C71:H76)</f>
+        <v>1.0808048027409312</v>
+      </c>
+      <c r="D84" s="80">
+        <v>2.2314498939412838E-2</v>
+      </c>
+      <c r="E84" s="80">
+        <v>5.2811274154853111E-3</v>
+      </c>
+      <c r="F84" s="80">
+        <v>1.9523240013988577E-3</v>
+      </c>
+      <c r="G84" s="80">
+        <v>6.8571091232946921E-4</v>
+      </c>
+      <c r="H84" s="81">
+        <v>2.8475102577030101E-3</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C85" s="116">
-        <v>3.9848534000372818E-2</v>
+        <v>0.27021819013035653</v>
       </c>
       <c r="D85" s="69">
-        <v>2.049907368102093E-2</v>
+        <v>1.4033712428121814</v>
       </c>
       <c r="E85" s="69">
-        <v>1.0951181908840555</v>
+        <v>0.33021262335825319</v>
       </c>
       <c r="F85" s="69">
-        <v>2.1245271444898683E-2</v>
+        <v>0.12065099520393904</v>
       </c>
       <c r="G85" s="69">
-        <v>4.2185887790815557E-2</v>
+        <v>4.0638037886883249E-2</v>
       </c>
       <c r="H85" s="127">
-        <v>2.1572126644337955E-2</v>
+        <v>7.7834296331004305E-2</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C86" s="116">
-        <v>0.17565457561819672</v>
+        <v>3.9848534000372818E-2</v>
       </c>
       <c r="D86" s="69">
-        <v>0.18333974677168752</v>
+        <v>2.049907368102093E-2</v>
       </c>
       <c r="E86" s="69">
-        <v>0.1536492644135124</v>
+        <v>1.0951181908840555</v>
       </c>
       <c r="F86" s="69">
-        <v>1.2806812240517926</v>
+        <v>2.1245271444898683E-2</v>
       </c>
       <c r="G86" s="69">
-        <v>7.5278167574030636E-2</v>
+        <v>4.2185887790815557E-2</v>
       </c>
       <c r="H86" s="127">
-        <v>9.2034768931682845E-2</v>
+        <v>2.1572126644337955E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C87" s="116">
-        <v>0.27567310781277204</v>
+        <v>0.17565457561819672</v>
       </c>
       <c r="D87" s="69">
-        <v>0.21476777251022358</v>
+        <v>0.18333974677168752</v>
       </c>
       <c r="E87" s="69">
-        <v>0.26214758972490043</v>
+        <v>0.1536492644135124</v>
       </c>
       <c r="F87" s="69">
-        <v>0.25868506672454156</v>
+        <v>1.2806812240517926</v>
       </c>
       <c r="G87" s="69">
-        <v>1.3767017551517025</v>
+        <v>7.5278167574030636E-2</v>
       </c>
       <c r="H87" s="127">
-        <v>0.13289159227153707</v>
+        <v>9.2034768931682845E-2</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="116">
+        <v>0.27567310781277204</v>
+      </c>
+      <c r="D88" s="69">
+        <v>0.21476777251022358</v>
+      </c>
+      <c r="E88" s="69">
+        <v>0.26214758972490043</v>
+      </c>
+      <c r="F88" s="69">
+        <v>0.25868506672454156</v>
+      </c>
+      <c r="G88" s="69">
+        <v>1.3767017551517025</v>
+      </c>
+      <c r="H88" s="127">
+        <v>0.13289159227153707</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="82">
+      <c r="C89" s="82">
         <v>1.164443662045042E-2</v>
       </c>
-      <c r="D88" s="83">
+      <c r="D89" s="83">
         <v>2.5509679123786135E-2</v>
       </c>
-      <c r="E88" s="83">
+      <c r="E89" s="83">
         <v>2.6375566845209766E-2</v>
       </c>
-      <c r="F88" s="83">
+      <c r="F89" s="83">
         <v>2.4808226692811131E-2</v>
       </c>
-      <c r="G88" s="83">
+      <c r="G89" s="83">
         <v>2.7119426202665935E-2</v>
       </c>
-      <c r="H88" s="84">
+      <c r="H89" s="84">
         <v>1.0755180896363667</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="135" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="135" t="s">
+      <c r="E93" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="136">
-        <f>SUM(I8:M8)</f>
-        <v>17</v>
-      </c>
-      <c r="F93" s="136">
-        <f t="array" ref="F93:F98">N8:N13</f>
-        <v>42.395393207687704</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="137">
-        <f t="shared" ref="C94:C98" si="16">SUM(I9:M9)</f>
-        <v>905</v>
-      </c>
-      <c r="F94" s="137">
-        <v>1451.0444396409182</v>
+        <v>4</v>
+      </c>
+      <c r="C94" s="136">
+        <f>SUM(I9:M9)</f>
+        <v>17</v>
+      </c>
+      <c r="F94" s="136">
+        <f t="array" ref="F94:F99">N9:N14</f>
+        <v>42.395393207687704</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="137">
+        <f t="shared" ref="C95:C99" si="16">SUM(I10:M10)</f>
+        <v>905</v>
+      </c>
+      <c r="F95" s="137">
+        <v>1451.0444396409182</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="137">
+      <c r="C96" s="137">
         <f t="shared" si="16"/>
         <v>159</v>
       </c>
-      <c r="F95" s="137">
+      <c r="F96" s="137">
         <v>234.31815865191194</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="24" t="s">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="137">
+      <c r="C97" s="137">
         <f t="shared" si="16"/>
         <v>488</v>
       </c>
-      <c r="F96" s="137">
+      <c r="F97" s="137">
         <v>906.32365337514693</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="24" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="137">
+      <c r="C98" s="137">
         <f t="shared" si="16"/>
         <v>407</v>
       </c>
-      <c r="F97" s="137">
+      <c r="F98" s="137">
         <v>1010.0699636334728</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="24" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="138">
+      <c r="C99" s="138">
         <f t="shared" si="16"/>
         <v>623</v>
       </c>
-      <c r="F98" s="138">
+      <c r="F99" s="138">
         <v>720.67515144185245</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="AB27:AB28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD26:AD28"/>
-    <mergeCell ref="S26:X26"/>
-    <mergeCell ref="Y26:AC26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AB13:AB14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="AB20:AB21"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:M48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AA29"/>
+    <mergeCell ref="AB28:AB29"/>
+    <mergeCell ref="AC28:AC29"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD27:AD29"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="Y27:AC27"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="Y20:AC20"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AA15"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AC14:AC15"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AA22"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AD8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:M49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B1870C89-8E85-48A7-ABE5-F978C20327AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>